--- a/10_Period_20_Sep_2024_sd_19_Oct_2024/Timesheet Danamon_Bayu Bagus Bagaswara_October.xlsx
+++ b/10_Period_20_Sep_2024_sd_19_Oct_2024/Timesheet Danamon_Bayu Bagus Bagaswara_October.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr hidePivotFieldList="1" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bayub\Projects Bayu\TIMESHEET DANAMON BAYU\10_Period_20_Sep_2024_sd_19_Oct_2024\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\v00028684\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB591EEF-0318-41CE-9106-1CEBEF8F5811}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{415E537A-6E25-4668-B89C-749B2694CC9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="1" activeTab="1" xr2:uid="{287076C2-500C-4AE4-B01E-3C74A6B599A0}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" firstSheet="1" activeTab="1" xr2:uid="{287076C2-500C-4AE4-B01E-3C74A6B599A0}"/>
   </bookViews>
   <sheets>
     <sheet name="Timesheet_Template (OLD)" sheetId="28" state="hidden" r:id="rId1"/>
@@ -61,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="179">
   <si>
     <t>Timesheet Period</t>
   </si>
@@ -720,9 +720,6 @@
     <t>IT-2024-000038-01</t>
   </si>
   <si>
-    <t>s</t>
-  </si>
-  <si>
     <t>please drop your signature here
 Edy Yanto</t>
   </si>
@@ -731,26 +728,26 @@
 Dody Arya</t>
   </si>
   <si>
-    <t>25-Sep-24
+    <t>Support SIT Release 9B : Maintenance features, upload data, validation data</t>
+  </si>
+  <si>
+    <t>IT Java Developer</t>
+  </si>
+  <si>
+    <t>Brainstorm with the development team: terkait dashboard monitoring data status, dan filtering data Asset Under Custody</t>
+  </si>
+  <si>
+    <t>Development Release 9B:  added util class for trim data, added error handling for some maintenance features, set filename for each report txt file, added Assets Under Custody data filtering</t>
+  </si>
+  <si>
+    <t>Unit Testing Release 9B : Maintenance feature, upload file data source, generate txt file, and download report LKPBU, LBABK, and Asset Under Custody</t>
+  </si>
+  <si>
+    <t>Support UAT Release 9B: Maintenance features, upload data source, reconciliation, generate report</t>
+  </si>
+  <si>
+    <t>04-Nov-24
 Bayu Bagus Bagaswara</t>
-  </si>
-  <si>
-    <t>Monitoring Billing Statement</t>
-  </si>
-  <si>
-    <t>Support SIT Release 9B : Maintenance features, upload data, validation data</t>
-  </si>
-  <si>
-    <t>IT Java Developer</t>
-  </si>
-  <si>
-    <t>Brainstorm with the development team: terkait dashboard monitoring data status, dan filtering data Asset Under Custody</t>
-  </si>
-  <si>
-    <t>Development Release 9B:  added util class for trim data, added error handling for some maintenance features, set filename for each report txt file, added Assets Under Custody data filtering</t>
-  </si>
-  <si>
-    <t>Unit Testing Release 9B : Maintenance feature, upload file data source, generate txt file, and download report LKPBU, LBABK, and Asset Under Custody</t>
   </si>
 </sst>
 </file>
@@ -1956,15 +1953,117 @@
     <xf numFmtId="0" fontId="13" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="17" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="19" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1982,108 +2081,6 @@
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -2152,7 +2149,14 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2166,14 +2170,7 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
+          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2776,12 +2773,12 @@
       </c>
       <c r="L5" s="78"/>
       <c r="M5" s="78"/>
-      <c r="N5" s="150" t="s">
+      <c r="N5" s="142" t="s">
         <v>11</v>
       </c>
-      <c r="O5" s="150"/>
-      <c r="P5" s="150"/>
-      <c r="Q5" s="150"/>
+      <c r="O5" s="142"/>
+      <c r="P5" s="142"/>
+      <c r="Q5" s="142"/>
     </row>
     <row r="6" spans="1:35" ht="17" x14ac:dyDescent="0.4">
       <c r="A6" s="74" t="s">
@@ -2806,12 +2803,12 @@
       </c>
       <c r="L6" s="87"/>
       <c r="M6" s="76"/>
-      <c r="N6" s="149" t="s">
+      <c r="N6" s="141" t="s">
         <v>17</v>
       </c>
-      <c r="O6" s="149"/>
-      <c r="P6" s="149"/>
-      <c r="Q6" s="149"/>
+      <c r="O6" s="141"/>
+      <c r="P6" s="141"/>
+      <c r="Q6" s="141"/>
       <c r="W6"/>
     </row>
     <row r="7" spans="1:35" s="42" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
@@ -2834,13 +2831,13 @@
       <c r="Q7" s="76"/>
     </row>
     <row r="9" spans="1:35" ht="17" x14ac:dyDescent="0.35">
-      <c r="A9" s="140" t="s">
+      <c r="A9" s="175" t="s">
         <v>20</v>
       </c>
-      <c r="B9" s="141" t="s">
+      <c r="B9" s="139" t="s">
         <v>21</v>
       </c>
-      <c r="C9" s="140" t="s">
+      <c r="C9" s="175" t="s">
         <v>22</v>
       </c>
       <c r="D9" s="50" t="str">
@@ -2963,7 +2960,7 @@
         <f t="shared" si="0"/>
         <v>Mon</v>
       </c>
-      <c r="AH9" s="141" t="s">
+      <c r="AH9" s="139" t="s">
         <v>23</v>
       </c>
       <c r="AI9" s="90" t="s">
@@ -2971,9 +2968,9 @@
       </c>
     </row>
     <row r="10" spans="1:35" ht="17" x14ac:dyDescent="0.35">
-      <c r="A10" s="140"/>
-      <c r="B10" s="141"/>
-      <c r="C10" s="140"/>
+      <c r="A10" s="175"/>
+      <c r="B10" s="139"/>
+      <c r="C10" s="175"/>
       <c r="D10" s="51" cm="1">
         <f t="array" ref="D10:AG10">IFERROR(IF(OR((B3-B2+1)&gt;31,B2="",B3=""),"",_xlfn.SEQUENCE(,B3-B2+1,B2)),"")</f>
         <v>45536</v>
@@ -3065,7 +3062,7 @@
       <c r="AG10" s="51">
         <v>45565</v>
       </c>
-      <c r="AH10" s="141"/>
+      <c r="AH10" s="139"/>
       <c r="AI10" s="90"/>
     </row>
     <row r="11" spans="1:35" ht="17" x14ac:dyDescent="0.4">
@@ -3677,11 +3674,11 @@
       <c r="AI21" s="73"/>
     </row>
     <row r="22" spans="1:36" ht="17" x14ac:dyDescent="0.4">
-      <c r="A22" s="142" t="s">
+      <c r="A22" s="176" t="s">
         <v>38</v>
       </c>
-      <c r="B22" s="143"/>
-      <c r="C22" s="144"/>
+      <c r="B22" s="177"/>
+      <c r="C22" s="178"/>
       <c r="D22" s="57"/>
       <c r="E22" s="57">
         <v>8</v>
@@ -3725,11 +3722,11 @@
       <c r="AI22" s="73"/>
     </row>
     <row r="23" spans="1:36" ht="17" x14ac:dyDescent="0.4">
-      <c r="A23" s="142" t="s">
+      <c r="A23" s="176" t="s">
         <v>39</v>
       </c>
-      <c r="B23" s="143"/>
-      <c r="C23" s="144"/>
+      <c r="B23" s="177"/>
+      <c r="C23" s="178"/>
       <c r="D23" s="57"/>
       <c r="E23" s="57"/>
       <c r="F23" s="57">
@@ -3769,11 +3766,11 @@
       <c r="AI23" s="73"/>
     </row>
     <row r="24" spans="1:36" ht="17" x14ac:dyDescent="0.4">
-      <c r="A24" s="145" t="s">
+      <c r="A24" s="179" t="s">
         <v>40</v>
       </c>
-      <c r="B24" s="146"/>
-      <c r="C24" s="147"/>
+      <c r="B24" s="180"/>
+      <c r="C24" s="181"/>
       <c r="D24" s="57"/>
       <c r="E24" s="57"/>
       <c r="F24" s="57"/>
@@ -3813,11 +3810,11 @@
       <c r="AI24" s="73"/>
     </row>
     <row r="25" spans="1:36" ht="17" x14ac:dyDescent="0.4">
-      <c r="A25" s="142" t="s">
+      <c r="A25" s="176" t="s">
         <v>41</v>
       </c>
-      <c r="B25" s="143"/>
-      <c r="C25" s="144"/>
+      <c r="B25" s="177"/>
+      <c r="C25" s="178"/>
       <c r="D25" s="57"/>
       <c r="E25" s="57">
         <f t="shared" ref="E25:AB25" si="1">SUM(E11:E20)</f>
@@ -3948,145 +3945,145 @@
         <v>42</v>
       </c>
       <c r="D27" s="4"/>
-      <c r="E27" s="151"/>
-      <c r="F27" s="151"/>
-      <c r="G27" s="151"/>
-      <c r="H27" s="151"/>
-      <c r="I27" s="151"/>
-      <c r="J27" s="151"/>
-      <c r="S27" s="170" t="s">
+      <c r="E27" s="143"/>
+      <c r="F27" s="143"/>
+      <c r="G27" s="143"/>
+      <c r="H27" s="143"/>
+      <c r="I27" s="143"/>
+      <c r="J27" s="143"/>
+      <c r="S27" s="162" t="s">
         <v>43</v>
       </c>
-      <c r="T27" s="171"/>
-      <c r="U27" s="171"/>
-      <c r="V27" s="171"/>
-      <c r="W27" s="171"/>
-      <c r="X27" s="171"/>
-      <c r="Y27" s="171"/>
-      <c r="Z27" s="171"/>
-      <c r="AA27" s="172"/>
-      <c r="AC27" s="178" t="s">
+      <c r="T27" s="163"/>
+      <c r="U27" s="163"/>
+      <c r="V27" s="163"/>
+      <c r="W27" s="163"/>
+      <c r="X27" s="163"/>
+      <c r="Y27" s="163"/>
+      <c r="Z27" s="163"/>
+      <c r="AA27" s="164"/>
+      <c r="AC27" s="170" t="s">
         <v>44</v>
       </c>
-      <c r="AD27" s="179"/>
-      <c r="AE27" s="179"/>
-      <c r="AF27" s="179"/>
-      <c r="AG27" s="179"/>
-      <c r="AH27" s="179"/>
-      <c r="AI27" s="179"/>
-      <c r="AJ27" s="180"/>
+      <c r="AD27" s="171"/>
+      <c r="AE27" s="171"/>
+      <c r="AF27" s="171"/>
+      <c r="AG27" s="171"/>
+      <c r="AH27" s="171"/>
+      <c r="AI27" s="171"/>
+      <c r="AJ27" s="172"/>
     </row>
     <row r="28" spans="1:36" ht="15.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" s="69"/>
       <c r="B28" s="49" t="s">
         <v>45</v>
       </c>
-      <c r="E28" s="151"/>
-      <c r="F28" s="151"/>
-      <c r="G28" s="151"/>
-      <c r="H28" s="151"/>
-      <c r="I28" s="151"/>
-      <c r="J28" s="151"/>
-      <c r="S28" s="161" t="s">
+      <c r="E28" s="143"/>
+      <c r="F28" s="143"/>
+      <c r="G28" s="143"/>
+      <c r="H28" s="143"/>
+      <c r="I28" s="143"/>
+      <c r="J28" s="143"/>
+      <c r="S28" s="153" t="s">
         <v>46</v>
       </c>
-      <c r="T28" s="162"/>
-      <c r="U28" s="152" t="s">
+      <c r="T28" s="154"/>
+      <c r="U28" s="144" t="s">
         <v>47</v>
       </c>
-      <c r="V28" s="153"/>
-      <c r="W28" s="153"/>
-      <c r="X28" s="153"/>
-      <c r="Y28" s="153"/>
-      <c r="Z28" s="153"/>
-      <c r="AA28" s="154"/>
-      <c r="AC28" s="167" t="s">
+      <c r="V28" s="145"/>
+      <c r="W28" s="145"/>
+      <c r="X28" s="145"/>
+      <c r="Y28" s="145"/>
+      <c r="Z28" s="145"/>
+      <c r="AA28" s="146"/>
+      <c r="AC28" s="159" t="s">
         <v>48</v>
       </c>
-      <c r="AD28" s="153"/>
-      <c r="AE28" s="153"/>
-      <c r="AF28" s="153"/>
-      <c r="AG28" s="153"/>
-      <c r="AH28" s="153"/>
-      <c r="AI28" s="153"/>
-      <c r="AJ28" s="154"/>
+      <c r="AD28" s="145"/>
+      <c r="AE28" s="145"/>
+      <c r="AF28" s="145"/>
+      <c r="AG28" s="145"/>
+      <c r="AH28" s="145"/>
+      <c r="AI28" s="145"/>
+      <c r="AJ28" s="146"/>
     </row>
     <row r="29" spans="1:36" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A29" s="70"/>
       <c r="B29" s="49" t="s">
         <v>49</v>
       </c>
-      <c r="E29" s="151"/>
-      <c r="F29" s="151"/>
-      <c r="G29" s="151"/>
-      <c r="H29" s="151"/>
-      <c r="I29" s="151"/>
-      <c r="J29" s="151"/>
-      <c r="S29" s="163"/>
-      <c r="T29" s="164"/>
-      <c r="U29" s="155"/>
-      <c r="V29" s="156"/>
-      <c r="W29" s="156"/>
-      <c r="X29" s="156"/>
-      <c r="Y29" s="156"/>
-      <c r="Z29" s="156"/>
-      <c r="AA29" s="157"/>
-      <c r="AC29" s="168"/>
-      <c r="AD29" s="156"/>
-      <c r="AE29" s="156"/>
-      <c r="AF29" s="156"/>
-      <c r="AG29" s="156"/>
-      <c r="AH29" s="156"/>
-      <c r="AI29" s="156"/>
-      <c r="AJ29" s="157"/>
+      <c r="E29" s="143"/>
+      <c r="F29" s="143"/>
+      <c r="G29" s="143"/>
+      <c r="H29" s="143"/>
+      <c r="I29" s="143"/>
+      <c r="J29" s="143"/>
+      <c r="S29" s="155"/>
+      <c r="T29" s="156"/>
+      <c r="U29" s="147"/>
+      <c r="V29" s="148"/>
+      <c r="W29" s="148"/>
+      <c r="X29" s="148"/>
+      <c r="Y29" s="148"/>
+      <c r="Z29" s="148"/>
+      <c r="AA29" s="149"/>
+      <c r="AC29" s="160"/>
+      <c r="AD29" s="148"/>
+      <c r="AE29" s="148"/>
+      <c r="AF29" s="148"/>
+      <c r="AG29" s="148"/>
+      <c r="AH29" s="148"/>
+      <c r="AI29" s="148"/>
+      <c r="AJ29" s="149"/>
     </row>
     <row r="30" spans="1:36" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A30" s="71"/>
       <c r="B30" s="49" t="s">
         <v>50</v>
       </c>
-      <c r="E30" s="151"/>
-      <c r="F30" s="151"/>
-      <c r="G30" s="151"/>
-      <c r="H30" s="151"/>
-      <c r="I30" s="151"/>
-      <c r="J30" s="151"/>
-      <c r="S30" s="163"/>
-      <c r="T30" s="164"/>
-      <c r="U30" s="155"/>
-      <c r="V30" s="156"/>
-      <c r="W30" s="156"/>
-      <c r="X30" s="156"/>
-      <c r="Y30" s="156"/>
-      <c r="Z30" s="156"/>
-      <c r="AA30" s="157"/>
-      <c r="AC30" s="168"/>
-      <c r="AD30" s="156"/>
-      <c r="AE30" s="156"/>
-      <c r="AF30" s="156"/>
-      <c r="AG30" s="156"/>
-      <c r="AH30" s="156"/>
-      <c r="AI30" s="156"/>
-      <c r="AJ30" s="157"/>
+      <c r="E30" s="143"/>
+      <c r="F30" s="143"/>
+      <c r="G30" s="143"/>
+      <c r="H30" s="143"/>
+      <c r="I30" s="143"/>
+      <c r="J30" s="143"/>
+      <c r="S30" s="155"/>
+      <c r="T30" s="156"/>
+      <c r="U30" s="147"/>
+      <c r="V30" s="148"/>
+      <c r="W30" s="148"/>
+      <c r="X30" s="148"/>
+      <c r="Y30" s="148"/>
+      <c r="Z30" s="148"/>
+      <c r="AA30" s="149"/>
+      <c r="AC30" s="160"/>
+      <c r="AD30" s="148"/>
+      <c r="AE30" s="148"/>
+      <c r="AF30" s="148"/>
+      <c r="AG30" s="148"/>
+      <c r="AH30" s="148"/>
+      <c r="AI30" s="148"/>
+      <c r="AJ30" s="149"/>
     </row>
     <row r="31" spans="1:36" ht="19" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="S31" s="163"/>
-      <c r="T31" s="164"/>
-      <c r="U31" s="155"/>
-      <c r="V31" s="156"/>
-      <c r="W31" s="156"/>
-      <c r="X31" s="156"/>
-      <c r="Y31" s="156"/>
-      <c r="Z31" s="156"/>
-      <c r="AA31" s="157"/>
-      <c r="AC31" s="168"/>
-      <c r="AD31" s="156"/>
-      <c r="AE31" s="156"/>
-      <c r="AF31" s="156"/>
-      <c r="AG31" s="156"/>
-      <c r="AH31" s="156"/>
-      <c r="AI31" s="156"/>
-      <c r="AJ31" s="157"/>
+      <c r="S31" s="155"/>
+      <c r="T31" s="156"/>
+      <c r="U31" s="147"/>
+      <c r="V31" s="148"/>
+      <c r="W31" s="148"/>
+      <c r="X31" s="148"/>
+      <c r="Y31" s="148"/>
+      <c r="Z31" s="148"/>
+      <c r="AA31" s="149"/>
+      <c r="AC31" s="160"/>
+      <c r="AD31" s="148"/>
+      <c r="AE31" s="148"/>
+      <c r="AF31" s="148"/>
+      <c r="AG31" s="148"/>
+      <c r="AH31" s="148"/>
+      <c r="AI31" s="148"/>
+      <c r="AJ31" s="149"/>
     </row>
     <row r="32" spans="1:36" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A32" s="72" t="s">
@@ -4099,29 +4096,29 @@
       <c r="F32" s="44"/>
       <c r="G32" s="44"/>
       <c r="H32" s="44"/>
-      <c r="S32" s="173"/>
-      <c r="T32" s="174"/>
-      <c r="U32" s="175"/>
-      <c r="V32" s="176"/>
-      <c r="W32" s="176"/>
-      <c r="X32" s="176"/>
-      <c r="Y32" s="176"/>
-      <c r="Z32" s="176"/>
-      <c r="AA32" s="177"/>
-      <c r="AC32" s="181"/>
-      <c r="AD32" s="176"/>
-      <c r="AE32" s="176"/>
-      <c r="AF32" s="176"/>
-      <c r="AG32" s="176"/>
-      <c r="AH32" s="176"/>
-      <c r="AI32" s="176"/>
-      <c r="AJ32" s="177"/>
+      <c r="S32" s="165"/>
+      <c r="T32" s="166"/>
+      <c r="U32" s="167"/>
+      <c r="V32" s="168"/>
+      <c r="W32" s="168"/>
+      <c r="X32" s="168"/>
+      <c r="Y32" s="168"/>
+      <c r="Z32" s="168"/>
+      <c r="AA32" s="169"/>
+      <c r="AC32" s="173"/>
+      <c r="AD32" s="168"/>
+      <c r="AE32" s="168"/>
+      <c r="AF32" s="168"/>
+      <c r="AG32" s="168"/>
+      <c r="AH32" s="168"/>
+      <c r="AI32" s="168"/>
+      <c r="AJ32" s="169"/>
     </row>
     <row r="33" spans="1:36" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A33" s="148" t="s">
+      <c r="A33" s="140" t="s">
         <v>52</v>
       </c>
-      <c r="B33" s="148"/>
+      <c r="B33" s="140"/>
       <c r="C33" s="63">
         <f>COUNTIF(D24:AG24,"=8")</f>
         <v>1</v>
@@ -4131,29 +4128,29 @@
       <c r="F33" s="44"/>
       <c r="G33" s="44"/>
       <c r="H33" s="44"/>
-      <c r="S33" s="161" t="s">
+      <c r="S33" s="153" t="s">
         <v>53</v>
       </c>
-      <c r="T33" s="162"/>
-      <c r="U33" s="152" t="s">
+      <c r="T33" s="154"/>
+      <c r="U33" s="144" t="s">
         <v>54</v>
       </c>
-      <c r="V33" s="153"/>
-      <c r="W33" s="153"/>
-      <c r="X33" s="153"/>
-      <c r="Y33" s="153"/>
-      <c r="Z33" s="153"/>
-      <c r="AA33" s="154"/>
-      <c r="AC33" s="167" t="s">
+      <c r="V33" s="145"/>
+      <c r="W33" s="145"/>
+      <c r="X33" s="145"/>
+      <c r="Y33" s="145"/>
+      <c r="Z33" s="145"/>
+      <c r="AA33" s="146"/>
+      <c r="AC33" s="159" t="s">
         <v>55</v>
       </c>
-      <c r="AD33" s="153"/>
-      <c r="AE33" s="153"/>
-      <c r="AF33" s="153"/>
-      <c r="AG33" s="153"/>
-      <c r="AH33" s="153"/>
-      <c r="AI33" s="153"/>
-      <c r="AJ33" s="154"/>
+      <c r="AD33" s="145"/>
+      <c r="AE33" s="145"/>
+      <c r="AF33" s="145"/>
+      <c r="AG33" s="145"/>
+      <c r="AH33" s="145"/>
+      <c r="AI33" s="145"/>
+      <c r="AJ33" s="146"/>
     </row>
     <row r="34" spans="1:36" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A34" s="63" t="s">
@@ -4169,23 +4166,23 @@
       <c r="F34" s="44"/>
       <c r="G34" s="44"/>
       <c r="H34" s="44"/>
-      <c r="S34" s="163"/>
-      <c r="T34" s="164"/>
-      <c r="U34" s="155"/>
-      <c r="V34" s="156"/>
-      <c r="W34" s="156"/>
-      <c r="X34" s="156"/>
-      <c r="Y34" s="156"/>
-      <c r="Z34" s="156"/>
-      <c r="AA34" s="157"/>
-      <c r="AC34" s="168"/>
-      <c r="AD34" s="156"/>
-      <c r="AE34" s="156"/>
-      <c r="AF34" s="156"/>
-      <c r="AG34" s="156"/>
-      <c r="AH34" s="156"/>
-      <c r="AI34" s="156"/>
-      <c r="AJ34" s="157"/>
+      <c r="S34" s="155"/>
+      <c r="T34" s="156"/>
+      <c r="U34" s="147"/>
+      <c r="V34" s="148"/>
+      <c r="W34" s="148"/>
+      <c r="X34" s="148"/>
+      <c r="Y34" s="148"/>
+      <c r="Z34" s="148"/>
+      <c r="AA34" s="149"/>
+      <c r="AC34" s="160"/>
+      <c r="AD34" s="148"/>
+      <c r="AE34" s="148"/>
+      <c r="AF34" s="148"/>
+      <c r="AG34" s="148"/>
+      <c r="AH34" s="148"/>
+      <c r="AI34" s="148"/>
+      <c r="AJ34" s="149"/>
     </row>
     <row r="35" spans="1:36" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A35" s="63" t="s">
@@ -4201,23 +4198,23 @@
       <c r="F35" s="44"/>
       <c r="G35" s="44"/>
       <c r="H35" s="44"/>
-      <c r="S35" s="163"/>
-      <c r="T35" s="164"/>
-      <c r="U35" s="155"/>
-      <c r="V35" s="156"/>
-      <c r="W35" s="156"/>
-      <c r="X35" s="156"/>
-      <c r="Y35" s="156"/>
-      <c r="Z35" s="156"/>
-      <c r="AA35" s="157"/>
-      <c r="AC35" s="168"/>
-      <c r="AD35" s="156"/>
-      <c r="AE35" s="156"/>
-      <c r="AF35" s="156"/>
-      <c r="AG35" s="156"/>
-      <c r="AH35" s="156"/>
-      <c r="AI35" s="156"/>
-      <c r="AJ35" s="157"/>
+      <c r="S35" s="155"/>
+      <c r="T35" s="156"/>
+      <c r="U35" s="147"/>
+      <c r="V35" s="148"/>
+      <c r="W35" s="148"/>
+      <c r="X35" s="148"/>
+      <c r="Y35" s="148"/>
+      <c r="Z35" s="148"/>
+      <c r="AA35" s="149"/>
+      <c r="AC35" s="160"/>
+      <c r="AD35" s="148"/>
+      <c r="AE35" s="148"/>
+      <c r="AF35" s="148"/>
+      <c r="AG35" s="148"/>
+      <c r="AH35" s="148"/>
+      <c r="AI35" s="148"/>
+      <c r="AJ35" s="149"/>
     </row>
     <row r="36" spans="1:36" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A36" s="63" t="s">
@@ -4233,29 +4230,29 @@
       <c r="F36" s="44"/>
       <c r="G36" s="44"/>
       <c r="H36" s="44"/>
-      <c r="S36" s="163"/>
-      <c r="T36" s="164"/>
-      <c r="U36" s="155"/>
-      <c r="V36" s="156"/>
-      <c r="W36" s="156"/>
-      <c r="X36" s="156"/>
-      <c r="Y36" s="156"/>
-      <c r="Z36" s="156"/>
-      <c r="AA36" s="157"/>
-      <c r="AC36" s="168"/>
-      <c r="AD36" s="156"/>
-      <c r="AE36" s="156"/>
-      <c r="AF36" s="156"/>
-      <c r="AG36" s="156"/>
-      <c r="AH36" s="156"/>
-      <c r="AI36" s="156"/>
-      <c r="AJ36" s="157"/>
+      <c r="S36" s="155"/>
+      <c r="T36" s="156"/>
+      <c r="U36" s="147"/>
+      <c r="V36" s="148"/>
+      <c r="W36" s="148"/>
+      <c r="X36" s="148"/>
+      <c r="Y36" s="148"/>
+      <c r="Z36" s="148"/>
+      <c r="AA36" s="149"/>
+      <c r="AC36" s="160"/>
+      <c r="AD36" s="148"/>
+      <c r="AE36" s="148"/>
+      <c r="AF36" s="148"/>
+      <c r="AG36" s="148"/>
+      <c r="AH36" s="148"/>
+      <c r="AI36" s="148"/>
+      <c r="AJ36" s="149"/>
     </row>
     <row r="37" spans="1:36" ht="38.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A37" s="139" t="s">
+      <c r="A37" s="174" t="s">
         <v>59</v>
       </c>
-      <c r="B37" s="139"/>
+      <c r="B37" s="174"/>
       <c r="C37" s="63">
         <f>COUNTIF(D25:AG25,"&gt;0")</f>
         <v>20</v>
@@ -4265,23 +4262,23 @@
       <c r="F37" s="44"/>
       <c r="G37" s="44"/>
       <c r="H37" s="44"/>
-      <c r="S37" s="165"/>
-      <c r="T37" s="166"/>
-      <c r="U37" s="158"/>
-      <c r="V37" s="159"/>
-      <c r="W37" s="159"/>
-      <c r="X37" s="159"/>
-      <c r="Y37" s="159"/>
-      <c r="Z37" s="159"/>
-      <c r="AA37" s="160"/>
-      <c r="AC37" s="169"/>
-      <c r="AD37" s="159"/>
-      <c r="AE37" s="159"/>
-      <c r="AF37" s="159"/>
-      <c r="AG37" s="159"/>
-      <c r="AH37" s="159"/>
-      <c r="AI37" s="159"/>
-      <c r="AJ37" s="160"/>
+      <c r="S37" s="157"/>
+      <c r="T37" s="158"/>
+      <c r="U37" s="150"/>
+      <c r="V37" s="151"/>
+      <c r="W37" s="151"/>
+      <c r="X37" s="151"/>
+      <c r="Y37" s="151"/>
+      <c r="Z37" s="151"/>
+      <c r="AA37" s="152"/>
+      <c r="AC37" s="161"/>
+      <c r="AD37" s="151"/>
+      <c r="AE37" s="151"/>
+      <c r="AF37" s="151"/>
+      <c r="AG37" s="151"/>
+      <c r="AH37" s="151"/>
+      <c r="AI37" s="151"/>
+      <c r="AJ37" s="152"/>
     </row>
     <row r="38" spans="1:36" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A38" s="63" t="s">
@@ -4321,10 +4318,10 @@
       <c r="H40" s="44"/>
     </row>
     <row r="41" spans="1:36" ht="35.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A41" s="139" t="s">
+      <c r="A41" s="174" t="s">
         <v>62</v>
       </c>
-      <c r="B41" s="139"/>
+      <c r="B41" s="174"/>
       <c r="C41" s="63">
         <f>AH25</f>
         <v>160</v>
@@ -4336,10 +4333,10 @@
       <c r="H41" s="44"/>
     </row>
     <row r="42" spans="1:36" ht="38.15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A42" s="139" t="s">
+      <c r="A42" s="174" t="s">
         <v>63</v>
       </c>
-      <c r="B42" s="139"/>
+      <c r="B42" s="174"/>
       <c r="C42" s="63">
         <v>45</v>
       </c>
@@ -4468,6 +4465,15 @@
     <row r="53" spans="1:10" ht="169" customHeight="1" x14ac:dyDescent="0.35"/>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="A41:B41"/>
+    <mergeCell ref="A42:B42"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="A22:C22"/>
+    <mergeCell ref="A23:C23"/>
+    <mergeCell ref="A24:C24"/>
+    <mergeCell ref="A25:C25"/>
+    <mergeCell ref="C9:C10"/>
     <mergeCell ref="AH9:AH10"/>
     <mergeCell ref="A33:B33"/>
     <mergeCell ref="N6:Q6"/>
@@ -4482,15 +4488,6 @@
     <mergeCell ref="AC27:AJ27"/>
     <mergeCell ref="AC28:AJ32"/>
     <mergeCell ref="A37:B37"/>
-    <mergeCell ref="A41:B41"/>
-    <mergeCell ref="A42:B42"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="A22:C22"/>
-    <mergeCell ref="A23:C23"/>
-    <mergeCell ref="A24:C24"/>
-    <mergeCell ref="A25:C25"/>
-    <mergeCell ref="C9:C10"/>
   </mergeCells>
   <conditionalFormatting sqref="B2:B3">
     <cfRule type="expression" dxfId="11" priority="26">
@@ -4533,10 +4530,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA136F23-B726-450C-8838-7114D5303DC9}">
-  <dimension ref="A1:AJ53"/>
+  <dimension ref="A1:AI54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="58" zoomScaleNormal="58" workbookViewId="0">
-      <selection activeCell="O32" sqref="O32"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="58" zoomScaleNormal="58" workbookViewId="0">
+      <selection activeCell="G42" sqref="G42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4551,13 +4548,12 @@
     <col min="11" max="11" width="8" style="4" customWidth="1"/>
     <col min="12" max="12" width="8.08984375" style="4" customWidth="1"/>
     <col min="13" max="33" width="7.54296875" style="4" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="7.6328125" style="4" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="7.1796875" style="4" customWidth="1"/>
-    <col min="36" max="36" width="11.54296875" style="4" customWidth="1"/>
-    <col min="37" max="16384" width="8.7265625" style="4"/>
+    <col min="34" max="34" width="7.1796875" style="4" customWidth="1"/>
+    <col min="35" max="35" width="11.54296875" style="4" customWidth="1"/>
+    <col min="36" max="16384" width="8.7265625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" ht="17" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:35" ht="17" x14ac:dyDescent="0.4">
       <c r="A1" s="74" t="s">
         <v>0</v>
       </c>
@@ -4580,12 +4576,12 @@
       <c r="P1" s="78"/>
       <c r="Q1" s="78"/>
     </row>
-    <row r="2" spans="1:36" ht="17" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:35" ht="17" x14ac:dyDescent="0.4">
       <c r="A2" s="76" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="79">
-        <v>45566</v>
+        <v>45555</v>
       </c>
       <c r="C2" s="80"/>
       <c r="D2" s="137" t="s">
@@ -4605,12 +4601,12 @@
       <c r="P2" s="78"/>
       <c r="Q2" s="78"/>
     </row>
-    <row r="3" spans="1:36" ht="17" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:35" ht="17" x14ac:dyDescent="0.4">
       <c r="A3" s="76" t="s">
         <v>4</v>
       </c>
       <c r="B3" s="79">
-        <v>45596</v>
+        <v>45584</v>
       </c>
       <c r="C3" s="76"/>
       <c r="D3" s="43" t="s">
@@ -4630,7 +4626,7 @@
       <c r="P3" s="78"/>
       <c r="Q3" s="78"/>
     </row>
-    <row r="4" spans="1:36" ht="17" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:35" ht="17" x14ac:dyDescent="0.4">
       <c r="A4" s="76"/>
       <c r="B4" s="81"/>
       <c r="C4" s="76"/>
@@ -4649,7 +4645,7 @@
       <c r="P4" s="78"/>
       <c r="Q4" s="78"/>
     </row>
-    <row r="5" spans="1:36" ht="17" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:35" ht="17" x14ac:dyDescent="0.4">
       <c r="A5" s="74" t="s">
         <v>6</v>
       </c>
@@ -4672,19 +4668,19 @@
       </c>
       <c r="L5" s="78"/>
       <c r="M5" s="78"/>
-      <c r="N5" s="150" t="s">
+      <c r="N5" s="142" t="s">
         <v>167</v>
       </c>
-      <c r="O5" s="150"/>
-      <c r="P5" s="150"/>
-      <c r="Q5" s="150"/>
-    </row>
-    <row r="6" spans="1:36" ht="17" x14ac:dyDescent="0.4">
+      <c r="O5" s="142"/>
+      <c r="P5" s="142"/>
+      <c r="Q5" s="142"/>
+    </row>
+    <row r="6" spans="1:35" ht="17" x14ac:dyDescent="0.4">
       <c r="A6" s="74" t="s">
         <v>12</v>
       </c>
       <c r="B6" s="82" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="C6" s="76"/>
       <c r="D6" s="83" t="s">
@@ -4702,15 +4698,15 @@
       </c>
       <c r="L6" s="87"/>
       <c r="M6" s="76"/>
-      <c r="N6" s="149" t="s">
+      <c r="N6" s="141" t="s">
         <v>166</v>
       </c>
-      <c r="O6" s="149"/>
-      <c r="P6" s="149"/>
-      <c r="Q6" s="149"/>
+      <c r="O6" s="141"/>
+      <c r="P6" s="141"/>
+      <c r="Q6" s="141"/>
       <c r="W6"/>
     </row>
-    <row r="7" spans="1:36" s="42" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:35" s="42" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="74" t="s">
         <v>18</v>
       </c>
@@ -4729,249 +4725,242 @@
       <c r="P7" s="76"/>
       <c r="Q7" s="76"/>
     </row>
-    <row r="9" spans="1:36" ht="17" x14ac:dyDescent="0.35">
-      <c r="A9" s="140" t="s">
+    <row r="9" spans="1:35" ht="17" x14ac:dyDescent="0.35">
+      <c r="A9" s="175" t="s">
         <v>20</v>
       </c>
-      <c r="B9" s="141" t="s">
+      <c r="B9" s="139" t="s">
         <v>21</v>
       </c>
-      <c r="C9" s="140" t="s">
+      <c r="C9" s="175" t="s">
         <v>22</v>
       </c>
       <c r="D9" s="50" t="str">
-        <f t="shared" ref="D9:AH9" si="0">IFERROR(IF(D10="","",TEXT(D10,"ddd")),"")</f>
-        <v>Tue</v>
+        <f t="shared" ref="D9:AG9" si="0">IFERROR(IF(D10="","",TEXT(D10,"ddd")),"")</f>
+        <v>Fri</v>
       </c>
       <c r="E9" s="50" t="str">
         <f t="shared" si="0"/>
-        <v>Wed</v>
+        <v>Sat</v>
       </c>
       <c r="F9" s="50" t="str">
         <f t="shared" si="0"/>
-        <v>Thu</v>
+        <v>Sun</v>
       </c>
       <c r="G9" s="50" t="str">
         <f t="shared" si="0"/>
-        <v>Fri</v>
+        <v>Mon</v>
       </c>
       <c r="H9" s="50" t="str">
         <f t="shared" si="0"/>
-        <v>Sat</v>
+        <v>Tue</v>
       </c>
       <c r="I9" s="50" t="str">
         <f t="shared" si="0"/>
-        <v>Sun</v>
+        <v>Wed</v>
       </c>
       <c r="J9" s="50" t="str">
         <f t="shared" si="0"/>
-        <v>Mon</v>
+        <v>Thu</v>
       </c>
       <c r="K9" s="50" t="str">
         <f t="shared" si="0"/>
-        <v>Tue</v>
+        <v>Fri</v>
       </c>
       <c r="L9" s="50" t="str">
         <f t="shared" si="0"/>
-        <v>Wed</v>
+        <v>Sat</v>
       </c>
       <c r="M9" s="50" t="str">
         <f t="shared" si="0"/>
-        <v>Thu</v>
+        <v>Sun</v>
       </c>
       <c r="N9" s="50" t="str">
         <f t="shared" si="0"/>
-        <v>Fri</v>
+        <v>Mon</v>
       </c>
       <c r="O9" s="50" t="str">
         <f t="shared" si="0"/>
-        <v>Sat</v>
+        <v>Tue</v>
       </c>
       <c r="P9" s="50" t="str">
         <f t="shared" si="0"/>
-        <v>Sun</v>
+        <v>Wed</v>
       </c>
       <c r="Q9" s="50" t="str">
         <f t="shared" si="0"/>
-        <v>Mon</v>
+        <v>Thu</v>
       </c>
       <c r="R9" s="50" t="str">
         <f t="shared" si="0"/>
-        <v>Tue</v>
+        <v>Fri</v>
       </c>
       <c r="S9" s="50" t="str">
         <f t="shared" si="0"/>
-        <v>Wed</v>
+        <v>Sat</v>
       </c>
       <c r="T9" s="50" t="str">
         <f t="shared" si="0"/>
-        <v>Thu</v>
+        <v>Sun</v>
       </c>
       <c r="U9" s="50" t="str">
         <f t="shared" si="0"/>
-        <v>Fri</v>
+        <v>Mon</v>
       </c>
       <c r="V9" s="50" t="str">
         <f t="shared" si="0"/>
-        <v>Sat</v>
+        <v>Tue</v>
       </c>
       <c r="W9" s="50" t="str">
         <f t="shared" si="0"/>
-        <v>Sun</v>
+        <v>Wed</v>
       </c>
       <c r="X9" s="50" t="str">
         <f t="shared" si="0"/>
-        <v>Mon</v>
+        <v>Thu</v>
       </c>
       <c r="Y9" s="50" t="str">
         <f t="shared" si="0"/>
-        <v>Tue</v>
+        <v>Fri</v>
       </c>
       <c r="Z9" s="50" t="str">
         <f t="shared" si="0"/>
-        <v>Wed</v>
+        <v>Sat</v>
       </c>
       <c r="AA9" s="50" t="str">
         <f t="shared" si="0"/>
-        <v>Thu</v>
+        <v>Sun</v>
       </c>
       <c r="AB9" s="50" t="str">
         <f t="shared" si="0"/>
-        <v>Fri</v>
+        <v>Mon</v>
       </c>
       <c r="AC9" s="50" t="str">
         <f t="shared" si="0"/>
-        <v>Sat</v>
+        <v>Tue</v>
       </c>
       <c r="AD9" s="50" t="str">
         <f t="shared" si="0"/>
-        <v>Sun</v>
+        <v>Wed</v>
       </c>
       <c r="AE9" s="50" t="str">
         <f t="shared" si="0"/>
-        <v>Mon</v>
+        <v>Thu</v>
       </c>
       <c r="AF9" s="50" t="str">
         <f t="shared" si="0"/>
-        <v>Tue</v>
+        <v>Fri</v>
       </c>
       <c r="AG9" s="50" t="str">
         <f t="shared" si="0"/>
-        <v>Wed</v>
-      </c>
-      <c r="AH9" s="50" t="str">
-        <f t="shared" si="0"/>
-        <v>Thu</v>
-      </c>
-      <c r="AI9" s="141" t="s">
+        <v>Sat</v>
+      </c>
+      <c r="AH9" s="139" t="s">
         <v>23</v>
       </c>
-      <c r="AJ9" s="90" t="s">
+      <c r="AI9" s="90" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="10" spans="1:36" ht="17" x14ac:dyDescent="0.35">
-      <c r="A10" s="140"/>
-      <c r="B10" s="141"/>
-      <c r="C10" s="140"/>
+    <row r="10" spans="1:35" ht="17" x14ac:dyDescent="0.35">
+      <c r="A10" s="175"/>
+      <c r="B10" s="139"/>
+      <c r="C10" s="175"/>
       <c r="D10" s="51" cm="1">
-        <f t="array" ref="D10:AH10">IFERROR(IF(OR((B3-B2+1)&gt;31,B2="",B3=""),"",_xlfn.SEQUENCE(,B3-B2+1,B2)),"")</f>
+        <f t="array" ref="D10:AG10">IFERROR(IF(OR((B3-B2+1)&gt;31,B2="",B3=""),"",_xlfn.SEQUENCE(,B3-B2+1,B2)),"")</f>
+        <v>45555</v>
+      </c>
+      <c r="E10" s="51">
+        <v>45556</v>
+      </c>
+      <c r="F10" s="51">
+        <v>45557</v>
+      </c>
+      <c r="G10" s="51">
+        <v>45558</v>
+      </c>
+      <c r="H10" s="52">
+        <v>45559</v>
+      </c>
+      <c r="I10" s="52">
+        <v>45560</v>
+      </c>
+      <c r="J10" s="52">
+        <v>45561</v>
+      </c>
+      <c r="K10" s="52">
+        <v>45562</v>
+      </c>
+      <c r="L10" s="52">
+        <v>45563</v>
+      </c>
+      <c r="M10" s="52">
+        <v>45564</v>
+      </c>
+      <c r="N10" s="52">
+        <v>45565</v>
+      </c>
+      <c r="O10" s="52">
         <v>45566</v>
       </c>
-      <c r="E10" s="51">
+      <c r="P10" s="52">
         <v>45567</v>
       </c>
-      <c r="F10" s="51">
+      <c r="Q10" s="52">
         <v>45568</v>
       </c>
-      <c r="G10" s="51">
+      <c r="R10" s="52">
         <v>45569</v>
       </c>
-      <c r="H10" s="52">
+      <c r="S10" s="52">
         <v>45570</v>
       </c>
-      <c r="I10" s="52">
+      <c r="T10" s="52">
         <v>45571</v>
       </c>
-      <c r="J10" s="52">
+      <c r="U10" s="52">
         <v>45572</v>
       </c>
-      <c r="K10" s="52">
+      <c r="V10" s="52">
         <v>45573</v>
       </c>
-      <c r="L10" s="52">
+      <c r="W10" s="52">
         <v>45574</v>
       </c>
-      <c r="M10" s="52">
+      <c r="X10" s="52">
         <v>45575</v>
       </c>
-      <c r="N10" s="52">
+      <c r="Y10" s="52">
         <v>45576</v>
       </c>
-      <c r="O10" s="52">
+      <c r="Z10" s="52">
         <v>45577</v>
       </c>
-      <c r="P10" s="52">
+      <c r="AA10" s="52">
         <v>45578</v>
       </c>
-      <c r="Q10" s="52">
+      <c r="AB10" s="52">
         <v>45579</v>
       </c>
-      <c r="R10" s="52">
+      <c r="AC10" s="52">
         <v>45580</v>
       </c>
-      <c r="S10" s="52">
+      <c r="AD10" s="52">
         <v>45581</v>
       </c>
-      <c r="T10" s="52">
+      <c r="AE10" s="52">
         <v>45582</v>
       </c>
-      <c r="U10" s="52">
+      <c r="AF10" s="51">
         <v>45583</v>
       </c>
-      <c r="V10" s="52">
+      <c r="AG10" s="51">
         <v>45584</v>
       </c>
-      <c r="W10" s="52">
-        <v>45585</v>
-      </c>
-      <c r="X10" s="52">
-        <v>45586</v>
-      </c>
-      <c r="Y10" s="52">
-        <v>45587</v>
-      </c>
-      <c r="Z10" s="52">
-        <v>45588</v>
-      </c>
-      <c r="AA10" s="52">
-        <v>45589</v>
-      </c>
-      <c r="AB10" s="52">
-        <v>45590</v>
-      </c>
-      <c r="AC10" s="52">
-        <v>45591</v>
-      </c>
-      <c r="AD10" s="52">
-        <v>45592</v>
-      </c>
-      <c r="AE10" s="52">
-        <v>45593</v>
-      </c>
-      <c r="AF10" s="51">
-        <v>45594</v>
-      </c>
-      <c r="AG10" s="51">
-        <v>45595</v>
-      </c>
-      <c r="AH10" s="51">
-        <v>45596</v>
-      </c>
-      <c r="AI10" s="141"/>
-      <c r="AJ10" s="90"/>
-    </row>
-    <row r="11" spans="1:36" ht="17" x14ac:dyDescent="0.4">
+      <c r="AH10" s="139"/>
+      <c r="AI10" s="90"/>
+    </row>
+    <row r="11" spans="1:35" ht="17" x14ac:dyDescent="0.4">
       <c r="A11" s="66" t="s">
         <v>25</v>
       </c>
@@ -5007,11 +4996,10 @@
       <c r="AE11" s="54"/>
       <c r="AF11" s="54"/>
       <c r="AG11" s="54"/>
-      <c r="AH11" s="54"/>
-      <c r="AI11" s="55"/>
-      <c r="AJ11" s="73"/>
-    </row>
-    <row r="12" spans="1:36" ht="17" x14ac:dyDescent="0.4">
+      <c r="AH11" s="55"/>
+      <c r="AI11" s="73"/>
+    </row>
+    <row r="12" spans="1:35" ht="17" x14ac:dyDescent="0.4">
       <c r="A12" s="88"/>
       <c r="B12" s="89" t="s">
         <v>168</v>
@@ -5020,92 +5008,87 @@
       <c r="D12" s="57">
         <v>1</v>
       </c>
-      <c r="E12" s="57">
-        <v>1</v>
-      </c>
-      <c r="F12" s="57">
-        <v>1</v>
-      </c>
+      <c r="E12" s="57"/>
+      <c r="F12" s="57"/>
       <c r="G12" s="50">
         <v>1</v>
       </c>
-      <c r="H12" s="57"/>
-      <c r="I12" s="50"/>
+      <c r="H12" s="57">
+        <v>1</v>
+      </c>
+      <c r="I12" s="50">
+        <v>1</v>
+      </c>
       <c r="J12" s="50">
         <v>1</v>
       </c>
       <c r="K12" s="50">
         <v>1</v>
       </c>
-      <c r="L12" s="50">
-        <v>1</v>
-      </c>
-      <c r="M12" s="50">
-        <v>1</v>
-      </c>
+      <c r="L12" s="50"/>
+      <c r="M12" s="50"/>
       <c r="N12" s="50">
         <v>1</v>
       </c>
-      <c r="O12" s="50"/>
-      <c r="P12" s="50"/>
+      <c r="O12" s="50">
+        <v>1</v>
+      </c>
+      <c r="P12" s="50">
+        <v>1</v>
+      </c>
       <c r="Q12" s="50">
         <v>1</v>
       </c>
       <c r="R12" s="50">
         <v>1</v>
       </c>
-      <c r="S12" s="50">
-        <v>1</v>
-      </c>
-      <c r="T12" s="50">
-        <v>1</v>
-      </c>
+      <c r="S12" s="50"/>
+      <c r="T12" s="50"/>
       <c r="U12" s="50">
         <v>1</v>
       </c>
-      <c r="V12" s="50"/>
-      <c r="W12" s="50"/>
+      <c r="V12" s="50">
+        <v>1</v>
+      </c>
+      <c r="W12" s="50">
+        <v>1</v>
+      </c>
       <c r="X12" s="50">
         <v>1</v>
       </c>
       <c r="Y12" s="50">
         <v>1</v>
       </c>
-      <c r="Z12" s="50">
-        <v>1</v>
-      </c>
-      <c r="AA12" s="50">
-        <v>1</v>
-      </c>
+      <c r="Z12" s="50"/>
+      <c r="AA12" s="50"/>
       <c r="AB12" s="50">
         <v>1</v>
       </c>
-      <c r="AC12" s="50"/>
-      <c r="AD12" s="50"/>
+      <c r="AC12" s="50">
+        <v>1</v>
+      </c>
+      <c r="AD12" s="50">
+        <v>1</v>
+      </c>
       <c r="AE12" s="50">
         <v>1</v>
       </c>
       <c r="AF12" s="57">
         <v>1</v>
       </c>
-      <c r="AG12" s="57">
-        <v>1</v>
-      </c>
-      <c r="AH12" s="57">
-        <v>1</v>
-      </c>
-      <c r="AI12" s="58">
-        <f>SUM(D12:AH12)</f>
-        <v>23</v>
-      </c>
-      <c r="AJ12" s="73"/>
-    </row>
-    <row r="13" spans="1:36" ht="85" x14ac:dyDescent="0.4">
+      <c r="AG12" s="57"/>
+      <c r="AH12" s="58">
+        <f>SUM(D12:AG12)</f>
+        <v>21</v>
+      </c>
+      <c r="AI12" s="73"/>
+    </row>
+    <row r="13" spans="1:35" ht="85" x14ac:dyDescent="0.4">
       <c r="A13" s="88" t="s">
         <v>169</v>
       </c>
       <c r="B13" s="89" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="C13" s="57"/>
       <c r="D13" s="57">
@@ -5113,15 +5096,29 @@
       </c>
       <c r="E13" s="57"/>
       <c r="F13" s="57"/>
-      <c r="G13" s="50"/>
-      <c r="H13" s="57"/>
-      <c r="I13" s="50"/>
-      <c r="J13" s="50"/>
-      <c r="K13" s="50"/>
+      <c r="G13" s="50">
+        <v>1</v>
+      </c>
+      <c r="H13" s="57">
+        <v>1</v>
+      </c>
+      <c r="I13" s="50">
+        <v>1</v>
+      </c>
+      <c r="J13" s="50">
+        <v>1</v>
+      </c>
+      <c r="K13" s="50">
+        <v>1</v>
+      </c>
       <c r="L13" s="50"/>
       <c r="M13" s="50"/>
-      <c r="N13" s="50"/>
-      <c r="O13" s="50"/>
+      <c r="N13" s="50">
+        <v>1</v>
+      </c>
+      <c r="O13" s="50">
+        <v>1</v>
+      </c>
       <c r="P13" s="50"/>
       <c r="Q13" s="50"/>
       <c r="R13" s="50"/>
@@ -5140,32 +5137,48 @@
       <c r="AE13" s="50"/>
       <c r="AF13" s="57"/>
       <c r="AG13" s="57"/>
-      <c r="AH13" s="57"/>
-      <c r="AI13" s="58"/>
-      <c r="AJ13" s="73"/>
-    </row>
-    <row r="14" spans="1:36" ht="119" x14ac:dyDescent="0.4">
+      <c r="AH13" s="58">
+        <f t="shared" ref="AH13:AH17" si="1">SUM(D13:AG13)</f>
+        <v>8</v>
+      </c>
+      <c r="AI13" s="73"/>
+    </row>
+    <row r="14" spans="1:35" ht="119" x14ac:dyDescent="0.4">
       <c r="A14" s="88" t="s">
         <v>169</v>
       </c>
       <c r="B14" s="89" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="C14" s="57"/>
       <c r="D14" s="57">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E14" s="57"/>
       <c r="F14" s="57"/>
-      <c r="G14" s="50"/>
-      <c r="H14" s="57"/>
-      <c r="I14" s="50"/>
-      <c r="J14" s="50"/>
-      <c r="K14" s="50"/>
+      <c r="G14" s="50">
+        <v>6</v>
+      </c>
+      <c r="H14" s="57">
+        <v>6</v>
+      </c>
+      <c r="I14" s="50">
+        <v>6</v>
+      </c>
+      <c r="J14" s="50">
+        <v>5</v>
+      </c>
+      <c r="K14" s="50">
+        <v>5</v>
+      </c>
       <c r="L14" s="50"/>
       <c r="M14" s="50"/>
-      <c r="N14" s="50"/>
-      <c r="O14" s="50"/>
+      <c r="N14" s="50">
+        <v>3</v>
+      </c>
+      <c r="O14" s="50">
+        <v>3</v>
+      </c>
       <c r="P14" s="50"/>
       <c r="Q14" s="50"/>
       <c r="R14" s="50"/>
@@ -5184,38 +5197,43 @@
       <c r="AE14" s="50"/>
       <c r="AF14" s="57"/>
       <c r="AG14" s="57"/>
-      <c r="AH14" s="57"/>
-      <c r="AI14" s="58">
-        <f>SUM(D14:AH14)</f>
-        <v>2</v>
-      </c>
-      <c r="AJ14" s="73"/>
-    </row>
-    <row r="15" spans="1:36" ht="85" x14ac:dyDescent="0.4">
+      <c r="AH14" s="58">
+        <f t="shared" si="1"/>
+        <v>40</v>
+      </c>
+      <c r="AI14" s="73"/>
+    </row>
+    <row r="15" spans="1:35" ht="85" x14ac:dyDescent="0.4">
       <c r="A15" s="88" t="s">
         <v>169</v>
       </c>
       <c r="B15" s="89" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="C15" s="57"/>
-      <c r="D15" s="57">
-        <v>4</v>
-      </c>
-      <c r="E15" s="57">
-        <v>3</v>
-      </c>
+      <c r="D15" s="57"/>
+      <c r="E15" s="57"/>
       <c r="F15" s="57"/>
       <c r="G15" s="50"/>
       <c r="H15" s="57"/>
       <c r="I15" s="50"/>
-      <c r="J15" s="50"/>
-      <c r="K15" s="50"/>
+      <c r="J15" s="50">
+        <v>1</v>
+      </c>
+      <c r="K15" s="50">
+        <v>1</v>
+      </c>
       <c r="L15" s="50"/>
       <c r="M15" s="50"/>
-      <c r="N15" s="50"/>
-      <c r="O15" s="50"/>
-      <c r="P15" s="50"/>
+      <c r="N15" s="50">
+        <v>3</v>
+      </c>
+      <c r="O15" s="50">
+        <v>3</v>
+      </c>
+      <c r="P15" s="50">
+        <v>3</v>
+      </c>
       <c r="Q15" s="50"/>
       <c r="R15" s="50"/>
       <c r="S15" s="50"/>
@@ -5233,28 +5251,24 @@
       <c r="AE15" s="50"/>
       <c r="AF15" s="57"/>
       <c r="AG15" s="57"/>
-      <c r="AH15" s="57"/>
-      <c r="AI15" s="58"/>
-      <c r="AJ15" s="73"/>
-    </row>
-    <row r="16" spans="1:36" ht="51" x14ac:dyDescent="0.4">
+      <c r="AH15" s="58">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+      <c r="AI15" s="73"/>
+    </row>
+    <row r="16" spans="1:35" ht="51" x14ac:dyDescent="0.4">
       <c r="A16" s="88" t="s">
         <v>169</v>
       </c>
       <c r="B16" s="56" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="C16" s="57"/>
       <c r="D16" s="57"/>
-      <c r="E16" s="57">
-        <v>4</v>
-      </c>
-      <c r="F16" s="57">
-        <v>7</v>
-      </c>
-      <c r="G16" s="50">
-        <v>7</v>
-      </c>
+      <c r="E16" s="57"/>
+      <c r="F16" s="57"/>
+      <c r="G16" s="50"/>
       <c r="H16" s="57"/>
       <c r="I16" s="50"/>
       <c r="J16" s="50"/>
@@ -5263,121 +5277,150 @@
       <c r="M16" s="50"/>
       <c r="N16" s="50"/>
       <c r="O16" s="50"/>
-      <c r="P16" s="50"/>
-      <c r="Q16" s="50"/>
-      <c r="R16" s="50"/>
+      <c r="P16" s="50">
+        <v>4</v>
+      </c>
+      <c r="Q16" s="50">
+        <v>7</v>
+      </c>
+      <c r="R16" s="50">
+        <v>7</v>
+      </c>
       <c r="S16" s="50"/>
       <c r="T16" s="50"/>
-      <c r="U16" s="50"/>
-      <c r="V16" s="50"/>
-      <c r="W16" s="50"/>
-      <c r="X16" s="50"/>
-      <c r="Y16" s="50"/>
+      <c r="U16" s="50">
+        <v>7</v>
+      </c>
+      <c r="V16" s="50">
+        <v>7</v>
+      </c>
+      <c r="W16" s="50">
+        <v>7</v>
+      </c>
+      <c r="X16" s="50">
+        <v>7</v>
+      </c>
+      <c r="Y16" s="50">
+        <v>4</v>
+      </c>
       <c r="Z16" s="50"/>
       <c r="AA16" s="50"/>
-      <c r="AB16" s="50"/>
-      <c r="AC16" s="50"/>
+      <c r="AB16" s="50">
+        <v>4</v>
+      </c>
+      <c r="AC16" s="50">
+        <v>4</v>
+      </c>
       <c r="AD16" s="50"/>
       <c r="AE16" s="50"/>
       <c r="AF16" s="57"/>
       <c r="AG16" s="57"/>
-      <c r="AH16" s="57"/>
-      <c r="AI16" s="58">
-        <f t="shared" ref="AI16" si="1">SUM(D16:AH16)</f>
-        <v>18</v>
-      </c>
-      <c r="AJ16" s="73"/>
-    </row>
-    <row r="17" spans="1:36" ht="17" x14ac:dyDescent="0.4">
-      <c r="A17" s="66" t="s">
+      <c r="AH16" s="58">
+        <f t="shared" si="1"/>
+        <v>58</v>
+      </c>
+      <c r="AI16" s="73"/>
+    </row>
+    <row r="17" spans="1:35" ht="68" x14ac:dyDescent="0.4">
+      <c r="A17" s="88" t="s">
+        <v>169</v>
+      </c>
+      <c r="B17" s="81" t="s">
+        <v>177</v>
+      </c>
+      <c r="C17" s="57"/>
+      <c r="D17" s="57"/>
+      <c r="E17" s="57"/>
+      <c r="F17" s="57"/>
+      <c r="G17" s="50"/>
+      <c r="H17" s="57"/>
+      <c r="I17" s="50"/>
+      <c r="J17" s="50"/>
+      <c r="K17" s="50"/>
+      <c r="L17" s="50"/>
+      <c r="M17" s="50"/>
+      <c r="N17" s="50"/>
+      <c r="O17" s="50"/>
+      <c r="P17" s="50"/>
+      <c r="Q17" s="50"/>
+      <c r="R17" s="50"/>
+      <c r="S17" s="50"/>
+      <c r="T17" s="50"/>
+      <c r="U17" s="50"/>
+      <c r="V17" s="50"/>
+      <c r="W17" s="50"/>
+      <c r="X17" s="50"/>
+      <c r="Y17" s="50">
+        <v>3</v>
+      </c>
+      <c r="Z17" s="50"/>
+      <c r="AA17" s="50"/>
+      <c r="AB17" s="50">
+        <v>3</v>
+      </c>
+      <c r="AC17" s="50">
+        <v>3</v>
+      </c>
+      <c r="AD17" s="50">
+        <v>7</v>
+      </c>
+      <c r="AE17" s="50">
+        <v>7</v>
+      </c>
+      <c r="AF17" s="57">
+        <v>7</v>
+      </c>
+      <c r="AG17" s="57"/>
+      <c r="AH17" s="58">
+        <f t="shared" si="1"/>
+        <v>30</v>
+      </c>
+      <c r="AI17" s="73"/>
+    </row>
+    <row r="18" spans="1:35" ht="17" x14ac:dyDescent="0.4">
+      <c r="A18" s="66" t="s">
         <v>31</v>
       </c>
-      <c r="B17" s="59"/>
-      <c r="C17" s="54"/>
-      <c r="D17" s="54"/>
-      <c r="E17" s="54"/>
-      <c r="F17" s="54"/>
-      <c r="G17" s="54"/>
-      <c r="H17" s="54"/>
-      <c r="I17" s="54"/>
-      <c r="J17" s="54"/>
-      <c r="K17" s="54"/>
-      <c r="L17" s="54"/>
-      <c r="M17" s="54"/>
-      <c r="N17" s="54"/>
-      <c r="O17" s="54"/>
-      <c r="P17" s="54"/>
-      <c r="Q17" s="54"/>
-      <c r="R17" s="54"/>
-      <c r="S17" s="54"/>
-      <c r="T17" s="54"/>
-      <c r="U17" s="54"/>
-      <c r="V17" s="54"/>
-      <c r="W17" s="54"/>
-      <c r="X17" s="54"/>
-      <c r="Y17" s="54"/>
-      <c r="Z17" s="54"/>
-      <c r="AA17" s="54"/>
-      <c r="AB17" s="54"/>
-      <c r="AC17" s="54"/>
-      <c r="AD17" s="54"/>
-      <c r="AE17" s="54"/>
-      <c r="AF17" s="54"/>
-      <c r="AG17" s="54"/>
-      <c r="AH17" s="54"/>
-      <c r="AI17" s="55"/>
-      <c r="AJ17" s="73"/>
-    </row>
-    <row r="18" spans="1:36" ht="17" x14ac:dyDescent="0.4">
-      <c r="A18" s="67"/>
-      <c r="B18" s="56" t="s">
-        <v>174</v>
-      </c>
-      <c r="C18" s="57" t="s">
-        <v>34</v>
-      </c>
-      <c r="D18" s="57"/>
-      <c r="E18" s="57"/>
-      <c r="F18" s="57"/>
-      <c r="G18" s="50"/>
-      <c r="H18" s="57"/>
-      <c r="I18" s="50"/>
-      <c r="J18" s="50"/>
-      <c r="K18" s="50"/>
-      <c r="L18" s="50"/>
-      <c r="M18" s="50"/>
-      <c r="N18" s="50"/>
-      <c r="O18" s="50"/>
-      <c r="P18" s="50"/>
-      <c r="Q18" s="50"/>
-      <c r="R18" s="50"/>
-      <c r="S18" s="50"/>
-      <c r="T18" s="50"/>
-      <c r="U18" s="50"/>
-      <c r="V18" s="50"/>
-      <c r="W18" s="50"/>
-      <c r="X18" s="50"/>
-      <c r="Y18" s="50"/>
-      <c r="Z18" s="50"/>
-      <c r="AA18" s="50"/>
-      <c r="AB18" s="50"/>
-      <c r="AC18" s="50"/>
-      <c r="AD18" s="50"/>
-      <c r="AE18" s="50"/>
-      <c r="AF18" s="57"/>
-      <c r="AG18" s="57"/>
-      <c r="AH18" s="57"/>
-      <c r="AI18" s="58">
-        <f>SUM(D18:AH18)</f>
-        <v>0</v>
-      </c>
-      <c r="AJ18" s="73"/>
-    </row>
-    <row r="19" spans="1:36" ht="17" x14ac:dyDescent="0.4">
+      <c r="B18" s="59"/>
+      <c r="C18" s="54"/>
+      <c r="D18" s="54"/>
+      <c r="E18" s="54"/>
+      <c r="F18" s="54"/>
+      <c r="G18" s="54"/>
+      <c r="H18" s="54"/>
+      <c r="I18" s="54"/>
+      <c r="J18" s="54"/>
+      <c r="K18" s="54"/>
+      <c r="L18" s="54"/>
+      <c r="M18" s="54"/>
+      <c r="N18" s="54"/>
+      <c r="O18" s="54"/>
+      <c r="P18" s="54"/>
+      <c r="Q18" s="54"/>
+      <c r="R18" s="54"/>
+      <c r="S18" s="54"/>
+      <c r="T18" s="54"/>
+      <c r="U18" s="54"/>
+      <c r="V18" s="54"/>
+      <c r="W18" s="54"/>
+      <c r="X18" s="54"/>
+      <c r="Y18" s="54"/>
+      <c r="Z18" s="54"/>
+      <c r="AA18" s="54"/>
+      <c r="AB18" s="54"/>
+      <c r="AC18" s="54"/>
+      <c r="AD18" s="54"/>
+      <c r="AE18" s="54"/>
+      <c r="AF18" s="54"/>
+      <c r="AG18" s="54"/>
+      <c r="AH18" s="55"/>
+      <c r="AI18" s="73"/>
+    </row>
+    <row r="19" spans="1:35" ht="17" x14ac:dyDescent="0.4">
       <c r="A19" s="67"/>
       <c r="B19" s="56"/>
       <c r="C19" s="57" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D19" s="57"/>
       <c r="E19" s="57"/>
@@ -5409,18 +5452,17 @@
       <c r="AE19" s="50"/>
       <c r="AF19" s="57"/>
       <c r="AG19" s="57"/>
-      <c r="AH19" s="57"/>
-      <c r="AI19" s="58">
-        <f>SUM(D19:AH19)</f>
+      <c r="AH19" s="58">
+        <f>SUM(D19:AG19)</f>
         <v>0</v>
       </c>
-      <c r="AJ19" s="73"/>
-    </row>
-    <row r="20" spans="1:36" ht="17" x14ac:dyDescent="0.4">
+      <c r="AI19" s="73"/>
+    </row>
+    <row r="20" spans="1:35" ht="17" x14ac:dyDescent="0.4">
       <c r="A20" s="67"/>
       <c r="B20" s="56"/>
       <c r="C20" s="57" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D20" s="57"/>
       <c r="E20" s="57"/>
@@ -5452,100 +5494,97 @@
       <c r="AE20" s="50"/>
       <c r="AF20" s="57"/>
       <c r="AG20" s="57"/>
-      <c r="AH20" s="57"/>
-      <c r="AI20" s="58">
-        <f>SUM(D20:AH20)</f>
+      <c r="AH20" s="58">
+        <f>SUM(D20:AG20)</f>
         <v>0</v>
       </c>
-      <c r="AJ20" s="73"/>
-    </row>
-    <row r="21" spans="1:36" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A21" s="68"/>
-      <c r="B21" s="60"/>
-      <c r="C21" s="61"/>
-      <c r="D21" s="61"/>
-      <c r="E21" s="61"/>
-      <c r="F21" s="61"/>
-      <c r="G21" s="61"/>
-      <c r="H21" s="61"/>
-      <c r="I21" s="61"/>
-      <c r="J21" s="61"/>
-      <c r="K21" s="61"/>
-      <c r="L21" s="61"/>
-      <c r="M21" s="61"/>
-      <c r="N21" s="61"/>
-      <c r="O21" s="61"/>
-      <c r="P21" s="61"/>
-      <c r="Q21" s="61"/>
-      <c r="R21" s="61"/>
-      <c r="S21" s="61"/>
-      <c r="T21" s="61"/>
-      <c r="U21" s="61"/>
-      <c r="V21" s="61"/>
-      <c r="W21" s="61"/>
-      <c r="X21" s="61"/>
-      <c r="Y21" s="61"/>
-      <c r="Z21" s="61"/>
-      <c r="AA21" s="61"/>
-      <c r="AB21" s="61"/>
-      <c r="AC21" s="61"/>
-      <c r="AD21" s="61"/>
-      <c r="AE21" s="61"/>
-      <c r="AF21" s="61"/>
-      <c r="AG21" s="62"/>
-      <c r="AH21" s="62"/>
-      <c r="AI21" s="62"/>
-      <c r="AJ21" s="73"/>
-    </row>
-    <row r="22" spans="1:36" ht="17" x14ac:dyDescent="0.4">
-      <c r="A22" s="142" t="s">
+      <c r="AI20" s="73"/>
+    </row>
+    <row r="21" spans="1:35" ht="17" x14ac:dyDescent="0.4">
+      <c r="A21" s="67"/>
+      <c r="B21" s="56"/>
+      <c r="C21" s="57" t="s">
+        <v>37</v>
+      </c>
+      <c r="D21" s="57"/>
+      <c r="E21" s="57"/>
+      <c r="F21" s="57"/>
+      <c r="G21" s="50"/>
+      <c r="H21" s="57"/>
+      <c r="I21" s="50"/>
+      <c r="J21" s="50"/>
+      <c r="K21" s="50"/>
+      <c r="L21" s="50"/>
+      <c r="M21" s="50"/>
+      <c r="N21" s="50"/>
+      <c r="O21" s="50"/>
+      <c r="P21" s="50"/>
+      <c r="Q21" s="50"/>
+      <c r="R21" s="50"/>
+      <c r="S21" s="50"/>
+      <c r="T21" s="50"/>
+      <c r="U21" s="50"/>
+      <c r="V21" s="50"/>
+      <c r="W21" s="50"/>
+      <c r="X21" s="50"/>
+      <c r="Y21" s="50"/>
+      <c r="Z21" s="50"/>
+      <c r="AA21" s="50"/>
+      <c r="AB21" s="50"/>
+      <c r="AC21" s="50"/>
+      <c r="AD21" s="50"/>
+      <c r="AE21" s="50"/>
+      <c r="AF21" s="57"/>
+      <c r="AG21" s="57"/>
+      <c r="AH21" s="58">
+        <f>SUM(D21:AG21)</f>
+        <v>0</v>
+      </c>
+      <c r="AI21" s="73"/>
+    </row>
+    <row r="22" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A22" s="68"/>
+      <c r="B22" s="60"/>
+      <c r="C22" s="61"/>
+      <c r="D22" s="61"/>
+      <c r="E22" s="61"/>
+      <c r="F22" s="61"/>
+      <c r="G22" s="61"/>
+      <c r="H22" s="61"/>
+      <c r="I22" s="61"/>
+      <c r="J22" s="61"/>
+      <c r="K22" s="61"/>
+      <c r="L22" s="61"/>
+      <c r="M22" s="61"/>
+      <c r="N22" s="61"/>
+      <c r="O22" s="61"/>
+      <c r="P22" s="61"/>
+      <c r="Q22" s="61"/>
+      <c r="R22" s="61"/>
+      <c r="S22" s="61"/>
+      <c r="T22" s="61"/>
+      <c r="U22" s="61"/>
+      <c r="V22" s="61"/>
+      <c r="W22" s="61"/>
+      <c r="X22" s="61"/>
+      <c r="Y22" s="61"/>
+      <c r="Z22" s="61"/>
+      <c r="AA22" s="61"/>
+      <c r="AB22" s="61"/>
+      <c r="AC22" s="61"/>
+      <c r="AD22" s="61"/>
+      <c r="AE22" s="61"/>
+      <c r="AF22" s="61"/>
+      <c r="AG22" s="62"/>
+      <c r="AH22" s="62"/>
+      <c r="AI22" s="73"/>
+    </row>
+    <row r="23" spans="1:35" ht="17" x14ac:dyDescent="0.4">
+      <c r="A23" s="176" t="s">
         <v>38</v>
       </c>
-      <c r="B22" s="143"/>
-      <c r="C22" s="144"/>
-      <c r="D22" s="57"/>
-      <c r="E22" s="57"/>
-      <c r="F22" s="57"/>
-      <c r="G22" s="50"/>
-      <c r="H22" s="57"/>
-      <c r="I22" s="50"/>
-      <c r="J22" s="50"/>
-      <c r="K22" s="50"/>
-      <c r="L22" s="50"/>
-      <c r="M22" s="50"/>
-      <c r="N22" s="50"/>
-      <c r="O22" s="50"/>
-      <c r="P22" s="50"/>
-      <c r="Q22" s="50"/>
-      <c r="R22" s="50"/>
-      <c r="S22" s="50"/>
-      <c r="T22" s="50"/>
-      <c r="U22" s="50"/>
-      <c r="V22" s="50"/>
-      <c r="W22" s="50"/>
-      <c r="X22" s="50"/>
-      <c r="Y22" s="50"/>
-      <c r="Z22" s="50"/>
-      <c r="AA22" s="50"/>
-      <c r="AB22" s="50"/>
-      <c r="AC22" s="50"/>
-      <c r="AD22" s="50"/>
-      <c r="AE22" s="50"/>
-      <c r="AF22" s="57"/>
-      <c r="AG22" s="57"/>
-      <c r="AH22" s="57"/>
-      <c r="AI22" s="58">
-        <f>SUM(D22:AH22)</f>
-        <v>0</v>
-      </c>
-      <c r="AJ22" s="73"/>
-    </row>
-    <row r="23" spans="1:36" ht="17" x14ac:dyDescent="0.4">
-      <c r="A23" s="142" t="s">
-        <v>39</v>
-      </c>
-      <c r="B23" s="143"/>
-      <c r="C23" s="144"/>
+      <c r="B23" s="177"/>
+      <c r="C23" s="178"/>
       <c r="D23" s="57"/>
       <c r="E23" s="57"/>
       <c r="F23" s="57"/>
@@ -5576,19 +5615,18 @@
       <c r="AE23" s="50"/>
       <c r="AF23" s="57"/>
       <c r="AG23" s="57"/>
-      <c r="AH23" s="57"/>
-      <c r="AI23" s="58">
-        <f>SUM(D23:AH23)</f>
+      <c r="AH23" s="58">
+        <f>SUM(D23:AG23)</f>
         <v>0</v>
       </c>
-      <c r="AJ23" s="73"/>
-    </row>
-    <row r="24" spans="1:36" ht="17" x14ac:dyDescent="0.4">
-      <c r="A24" s="145" t="s">
-        <v>40</v>
-      </c>
-      <c r="B24" s="146"/>
-      <c r="C24" s="147"/>
+      <c r="AI23" s="73"/>
+    </row>
+    <row r="24" spans="1:35" ht="17" x14ac:dyDescent="0.4">
+      <c r="A24" s="176" t="s">
+        <v>39</v>
+      </c>
+      <c r="B24" s="177"/>
+      <c r="C24" s="178"/>
       <c r="D24" s="57"/>
       <c r="E24" s="57"/>
       <c r="F24" s="57"/>
@@ -5619,261 +5657,265 @@
       <c r="AE24" s="50"/>
       <c r="AF24" s="57"/>
       <c r="AG24" s="57"/>
-      <c r="AH24" s="57"/>
-      <c r="AI24" s="58">
-        <f>SUM(D24:AH24)</f>
+      <c r="AH24" s="58">
+        <f>SUM(D24:AG24)</f>
         <v>0</v>
       </c>
-      <c r="AJ24" s="73"/>
-    </row>
-    <row r="25" spans="1:36" ht="17" x14ac:dyDescent="0.4">
-      <c r="A25" s="142" t="s">
+      <c r="AI24" s="73"/>
+    </row>
+    <row r="25" spans="1:35" ht="17" x14ac:dyDescent="0.4">
+      <c r="A25" s="179" t="s">
+        <v>40</v>
+      </c>
+      <c r="B25" s="180"/>
+      <c r="C25" s="181"/>
+      <c r="D25" s="57"/>
+      <c r="E25" s="57"/>
+      <c r="F25" s="57"/>
+      <c r="G25" s="50"/>
+      <c r="H25" s="57"/>
+      <c r="I25" s="50"/>
+      <c r="J25" s="50"/>
+      <c r="K25" s="50"/>
+      <c r="L25" s="50"/>
+      <c r="M25" s="50"/>
+      <c r="N25" s="50"/>
+      <c r="O25" s="50"/>
+      <c r="P25" s="50"/>
+      <c r="Q25" s="50"/>
+      <c r="R25" s="50"/>
+      <c r="S25" s="50"/>
+      <c r="T25" s="50"/>
+      <c r="U25" s="50"/>
+      <c r="V25" s="50"/>
+      <c r="W25" s="50"/>
+      <c r="X25" s="50"/>
+      <c r="Y25" s="50"/>
+      <c r="Z25" s="50"/>
+      <c r="AA25" s="50"/>
+      <c r="AB25" s="50"/>
+      <c r="AC25" s="50"/>
+      <c r="AD25" s="50"/>
+      <c r="AE25" s="50"/>
+      <c r="AF25" s="57"/>
+      <c r="AG25" s="57"/>
+      <c r="AH25" s="58">
+        <f>SUM(D25:AG25)</f>
+        <v>0</v>
+      </c>
+      <c r="AI25" s="73"/>
+    </row>
+    <row r="26" spans="1:35" ht="17" x14ac:dyDescent="0.4">
+      <c r="A26" s="176" t="s">
         <v>41</v>
       </c>
-      <c r="B25" s="143"/>
-      <c r="C25" s="144"/>
-      <c r="D25" s="57">
-        <f t="shared" ref="D25:AB25" si="2">SUM(D11:D20)</f>
+      <c r="B26" s="177"/>
+      <c r="C26" s="178"/>
+      <c r="D26" s="57">
+        <f t="shared" ref="D26:AC26" si="2">SUM(D11:D21)</f>
         <v>8</v>
       </c>
-      <c r="E25" s="57">
+      <c r="E26" s="57">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F26" s="57">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G26" s="57">
         <f t="shared" si="2"/>
         <v>8</v>
       </c>
-      <c r="F25" s="57">
+      <c r="H26" s="57">
         <f t="shared" si="2"/>
         <v>8</v>
       </c>
-      <c r="G25" s="57">
+      <c r="I26" s="50">
         <f t="shared" si="2"/>
         <v>8</v>
       </c>
-      <c r="H25" s="57">
+      <c r="J26" s="50">
+        <f t="shared" si="2"/>
+        <v>8</v>
+      </c>
+      <c r="K26" s="50">
+        <f t="shared" si="2"/>
+        <v>8</v>
+      </c>
+      <c r="L26" s="50">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I25" s="50">
+      <c r="M26" s="50">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J25" s="50">
+      <c r="N26" s="50">
         <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="K25" s="50">
+        <v>8</v>
+      </c>
+      <c r="O26" s="50">
         <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="L25" s="50">
+        <v>8</v>
+      </c>
+      <c r="P26" s="50">
         <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="M25" s="50">
+        <v>8</v>
+      </c>
+      <c r="Q26" s="50">
         <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="N25" s="50">
+        <v>8</v>
+      </c>
+      <c r="R26" s="50">
         <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="O25" s="50">
+        <v>8</v>
+      </c>
+      <c r="S26" s="50">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="P25" s="50">
+      <c r="T26" s="50">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="Q25" s="50">
+      <c r="U26" s="50">
         <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="R25" s="50">
+        <v>8</v>
+      </c>
+      <c r="V26" s="50">
         <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="S25" s="50">
+        <v>8</v>
+      </c>
+      <c r="W26" s="50">
         <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="T25" s="50">
+        <v>8</v>
+      </c>
+      <c r="X26" s="50">
         <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="U25" s="50">
+        <v>8</v>
+      </c>
+      <c r="Y26" s="50">
         <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="V25" s="50">
+        <v>8</v>
+      </c>
+      <c r="Z26" s="50">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="W25" s="50">
+      <c r="AA26" s="50">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="X25" s="50">
+      <c r="AB26" s="50">
         <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="Y25" s="50">
+        <v>8</v>
+      </c>
+      <c r="AC26" s="50">
         <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="Z25" s="50">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="AA25" s="50">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="AB25" s="50">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="AC25" s="50">
+        <v>8</v>
+      </c>
+      <c r="AD26" s="50">
+        <f>SUM(AD11:AD21)</f>
+        <v>8</v>
+      </c>
+      <c r="AE26" s="50">
+        <f>SUM(AE11:AE21)</f>
+        <v>8</v>
+      </c>
+      <c r="AF26" s="57">
+        <f>SUM(AF11:AF21)</f>
+        <v>8</v>
+      </c>
+      <c r="AG26" s="57">
+        <f>SUM(AG11:AG21)</f>
         <v>0</v>
       </c>
-      <c r="AD25" s="50">
-        <f>SUM(AD11:AD20)</f>
-        <v>0</v>
-      </c>
-      <c r="AE25" s="50">
-        <f>SUM(AE11:AE20)</f>
-        <v>1</v>
-      </c>
-      <c r="AF25" s="57">
-        <f>SUM(AF11:AF20)</f>
-        <v>1</v>
-      </c>
-      <c r="AG25" s="57">
-        <f>SUM(AG11:AG20)</f>
-        <v>1</v>
-      </c>
-      <c r="AH25" s="57">
-        <f>SUM(AH11:AH20)</f>
-        <v>1</v>
-      </c>
-      <c r="AI25" s="58">
-        <f>SUM(D25:AH25)</f>
-        <v>51</v>
-      </c>
-      <c r="AJ25" s="73"/>
-    </row>
-    <row r="26" spans="1:36" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="27" spans="1:36" s="93" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="91"/>
-      <c r="B27" s="92" t="s">
+      <c r="AH26" s="58">
+        <f>SUM(D26:AG26)</f>
+        <v>168</v>
+      </c>
+      <c r="AI26" s="73"/>
+    </row>
+    <row r="27" spans="1:35" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="28" spans="1:35" s="93" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="91"/>
+      <c r="B28" s="92" t="s">
         <v>42</v>
       </c>
-      <c r="D27" s="4"/>
-      <c r="E27" s="151"/>
-      <c r="F27" s="151"/>
-      <c r="G27" s="151"/>
-      <c r="H27" s="151"/>
-      <c r="I27" s="151"/>
-      <c r="J27" s="151"/>
-      <c r="S27" s="196" t="s">
+      <c r="D28" s="4"/>
+      <c r="E28" s="143"/>
+      <c r="F28" s="143"/>
+      <c r="G28" s="143"/>
+      <c r="H28" s="143"/>
+      <c r="I28" s="143"/>
+      <c r="J28" s="143"/>
+      <c r="S28" s="196" t="s">
         <v>43</v>
       </c>
-      <c r="T27" s="197"/>
-      <c r="U27" s="197"/>
-      <c r="V27" s="197"/>
-      <c r="W27" s="197"/>
-      <c r="X27" s="197"/>
-      <c r="Y27" s="197"/>
-      <c r="Z27" s="197"/>
-      <c r="AA27" s="198"/>
-      <c r="AC27" s="182" t="s">
+      <c r="T28" s="197"/>
+      <c r="U28" s="197"/>
+      <c r="V28" s="197"/>
+      <c r="W28" s="197"/>
+      <c r="X28" s="197"/>
+      <c r="Y28" s="197"/>
+      <c r="Z28" s="197"/>
+      <c r="AA28" s="198"/>
+      <c r="AC28" s="182" t="s">
         <v>44</v>
       </c>
-      <c r="AD27" s="183"/>
-      <c r="AE27" s="183"/>
-      <c r="AF27" s="183"/>
-      <c r="AG27" s="183"/>
-      <c r="AH27" s="183"/>
-      <c r="AI27" s="183"/>
-      <c r="AJ27" s="184"/>
-    </row>
-    <row r="28" spans="1:36" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A28" s="69"/>
-      <c r="B28" s="49" t="s">
+      <c r="AD28" s="183"/>
+      <c r="AE28" s="183"/>
+      <c r="AF28" s="183"/>
+      <c r="AG28" s="183"/>
+      <c r="AH28" s="183"/>
+      <c r="AI28" s="184"/>
+    </row>
+    <row r="29" spans="1:35" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A29" s="69"/>
+      <c r="B29" s="49" t="s">
         <v>45</v>
       </c>
-      <c r="E28" s="151"/>
-      <c r="F28" s="151"/>
-      <c r="G28" s="151"/>
-      <c r="H28" s="151"/>
-      <c r="I28" s="151"/>
-      <c r="J28" s="151"/>
-      <c r="S28" s="185" t="s">
+      <c r="E29" s="143"/>
+      <c r="F29" s="143"/>
+      <c r="G29" s="143"/>
+      <c r="H29" s="143"/>
+      <c r="I29" s="143"/>
+      <c r="J29" s="143"/>
+      <c r="S29" s="185" t="s">
         <v>46</v>
       </c>
-      <c r="T28" s="186"/>
-      <c r="U28" s="187" t="s">
-        <v>171</v>
-      </c>
-      <c r="V28" s="187"/>
-      <c r="W28" s="187"/>
-      <c r="X28" s="187"/>
-      <c r="Y28" s="187"/>
-      <c r="Z28" s="187"/>
-      <c r="AA28" s="188"/>
-      <c r="AC28" s="167" t="s">
-        <v>48</v>
-      </c>
-      <c r="AD28" s="153"/>
-      <c r="AE28" s="153"/>
-      <c r="AF28" s="153"/>
-      <c r="AG28" s="153"/>
-      <c r="AH28" s="153"/>
-      <c r="AI28" s="153"/>
-      <c r="AJ28" s="154"/>
-    </row>
-    <row r="29" spans="1:36" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="70"/>
-      <c r="B29" s="49" t="s">
-        <v>49</v>
-      </c>
-      <c r="E29" s="151"/>
-      <c r="F29" s="151"/>
-      <c r="G29" s="151"/>
-      <c r="H29" s="151"/>
-      <c r="I29" s="151"/>
-      <c r="J29" s="151"/>
-      <c r="S29" s="185"/>
       <c r="T29" s="186"/>
-      <c r="U29" s="187"/>
+      <c r="U29" s="187" t="s">
+        <v>170</v>
+      </c>
       <c r="V29" s="187"/>
       <c r="W29" s="187"/>
       <c r="X29" s="187"/>
       <c r="Y29" s="187"/>
       <c r="Z29" s="187"/>
       <c r="AA29" s="188"/>
-      <c r="AC29" s="168"/>
-      <c r="AD29" s="156"/>
-      <c r="AE29" s="156"/>
-      <c r="AF29" s="156"/>
-      <c r="AG29" s="156"/>
-      <c r="AH29" s="156"/>
-      <c r="AI29" s="156"/>
-      <c r="AJ29" s="157"/>
-    </row>
-    <row r="30" spans="1:36" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="71"/>
+      <c r="AC29" s="159" t="s">
+        <v>48</v>
+      </c>
+      <c r="AD29" s="145"/>
+      <c r="AE29" s="145"/>
+      <c r="AF29" s="145"/>
+      <c r="AG29" s="145"/>
+      <c r="AH29" s="145"/>
+      <c r="AI29" s="146"/>
+    </row>
+    <row r="30" spans="1:35" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="70"/>
       <c r="B30" s="49" t="s">
-        <v>50</v>
-      </c>
-      <c r="E30" s="151"/>
-      <c r="F30" s="151"/>
-      <c r="G30" s="151"/>
-      <c r="H30" s="151"/>
-      <c r="I30" s="151"/>
-      <c r="J30" s="151"/>
-      <c r="O30" s="4" t="s">
-        <v>170</v>
-      </c>
+        <v>49</v>
+      </c>
+      <c r="E30" s="143"/>
+      <c r="F30" s="143"/>
+      <c r="G30" s="143"/>
+      <c r="H30" s="143"/>
+      <c r="I30" s="143"/>
+      <c r="J30" s="143"/>
       <c r="S30" s="185"/>
       <c r="T30" s="186"/>
       <c r="U30" s="187"/>
@@ -5883,16 +5925,25 @@
       <c r="Y30" s="187"/>
       <c r="Z30" s="187"/>
       <c r="AA30" s="188"/>
-      <c r="AC30" s="168"/>
-      <c r="AD30" s="156"/>
-      <c r="AE30" s="156"/>
-      <c r="AF30" s="156"/>
-      <c r="AG30" s="156"/>
-      <c r="AH30" s="156"/>
-      <c r="AI30" s="156"/>
-      <c r="AJ30" s="157"/>
-    </row>
-    <row r="31" spans="1:36" ht="19" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="AC30" s="160"/>
+      <c r="AD30" s="148"/>
+      <c r="AE30" s="148"/>
+      <c r="AF30" s="148"/>
+      <c r="AG30" s="148"/>
+      <c r="AH30" s="148"/>
+      <c r="AI30" s="149"/>
+    </row>
+    <row r="31" spans="1:35" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A31" s="71"/>
+      <c r="B31" s="49" t="s">
+        <v>50</v>
+      </c>
+      <c r="E31" s="143"/>
+      <c r="F31" s="143"/>
+      <c r="G31" s="143"/>
+      <c r="H31" s="143"/>
+      <c r="I31" s="143"/>
+      <c r="J31" s="143"/>
       <c r="S31" s="185"/>
       <c r="T31" s="186"/>
       <c r="U31" s="187"/>
@@ -5902,26 +5953,15 @@
       <c r="Y31" s="187"/>
       <c r="Z31" s="187"/>
       <c r="AA31" s="188"/>
-      <c r="AC31" s="168"/>
-      <c r="AD31" s="156"/>
-      <c r="AE31" s="156"/>
-      <c r="AF31" s="156"/>
-      <c r="AG31" s="156"/>
-      <c r="AH31" s="156"/>
-      <c r="AI31" s="156"/>
-      <c r="AJ31" s="157"/>
-    </row>
-    <row r="32" spans="1:36" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A32" s="72" t="s">
-        <v>51</v>
-      </c>
-      <c r="B32" s="46"/>
-      <c r="C32" s="63"/>
-      <c r="D32" s="44"/>
-      <c r="E32" s="44"/>
-      <c r="F32" s="44"/>
-      <c r="G32" s="44"/>
-      <c r="H32" s="44"/>
+      <c r="AC31" s="160"/>
+      <c r="AD31" s="148"/>
+      <c r="AE31" s="148"/>
+      <c r="AF31" s="148"/>
+      <c r="AG31" s="148"/>
+      <c r="AH31" s="148"/>
+      <c r="AI31" s="149"/>
+    </row>
+    <row r="32" spans="1:35" ht="19" customHeight="1" x14ac:dyDescent="0.35">
       <c r="S32" s="185"/>
       <c r="T32" s="186"/>
       <c r="U32" s="187"/>
@@ -5931,93 +5971,87 @@
       <c r="Y32" s="187"/>
       <c r="Z32" s="187"/>
       <c r="AA32" s="188"/>
-      <c r="AC32" s="189"/>
-      <c r="AD32" s="190"/>
-      <c r="AE32" s="190"/>
-      <c r="AF32" s="190"/>
-      <c r="AG32" s="190"/>
-      <c r="AH32" s="190"/>
-      <c r="AI32" s="190"/>
-      <c r="AJ32" s="191"/>
-    </row>
-    <row r="33" spans="1:36" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A33" s="148" t="s">
-        <v>52</v>
-      </c>
-      <c r="B33" s="148"/>
-      <c r="C33" s="63">
-        <f>COUNTIF(D24:AH24,"=8")</f>
-        <v>0</v>
-      </c>
+      <c r="AC32" s="160"/>
+      <c r="AD32" s="148"/>
+      <c r="AE32" s="148"/>
+      <c r="AF32" s="148"/>
+      <c r="AG32" s="148"/>
+      <c r="AH32" s="148"/>
+      <c r="AI32" s="149"/>
+    </row>
+    <row r="33" spans="1:35" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A33" s="72" t="s">
+        <v>51</v>
+      </c>
+      <c r="B33" s="46"/>
+      <c r="C33" s="63"/>
       <c r="D33" s="44"/>
       <c r="E33" s="44"/>
       <c r="F33" s="44"/>
       <c r="G33" s="44"/>
       <c r="H33" s="44"/>
-      <c r="S33" s="185" t="s">
-        <v>53</v>
-      </c>
+      <c r="S33" s="185"/>
       <c r="T33" s="186"/>
-      <c r="U33" s="187" t="s">
-        <v>172</v>
-      </c>
+      <c r="U33" s="187"/>
       <c r="V33" s="187"/>
       <c r="W33" s="187"/>
       <c r="X33" s="187"/>
       <c r="Y33" s="187"/>
       <c r="Z33" s="187"/>
       <c r="AA33" s="188"/>
-      <c r="AC33" s="168" t="s">
-        <v>173</v>
-      </c>
-      <c r="AD33" s="156"/>
-      <c r="AE33" s="156"/>
-      <c r="AF33" s="156"/>
-      <c r="AG33" s="156"/>
-      <c r="AH33" s="156"/>
-      <c r="AI33" s="156"/>
-      <c r="AJ33" s="157"/>
-    </row>
-    <row r="34" spans="1:36" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A34" s="63" t="s">
-        <v>56</v>
-      </c>
-      <c r="B34" s="47"/>
-      <c r="C34" s="64">
-        <f>NETWORKDAYS(B2,B3)-C33</f>
-        <v>23</v>
+      <c r="AC33" s="189"/>
+      <c r="AD33" s="190"/>
+      <c r="AE33" s="190"/>
+      <c r="AF33" s="190"/>
+      <c r="AG33" s="190"/>
+      <c r="AH33" s="190"/>
+      <c r="AI33" s="191"/>
+    </row>
+    <row r="34" spans="1:35" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A34" s="140" t="s">
+        <v>52</v>
+      </c>
+      <c r="B34" s="140"/>
+      <c r="C34" s="63">
+        <f>COUNTIF(D25:AG25,"=8")</f>
+        <v>0</v>
       </c>
       <c r="D34" s="44"/>
       <c r="E34" s="44"/>
       <c r="F34" s="44"/>
       <c r="G34" s="44"/>
       <c r="H34" s="44"/>
-      <c r="S34" s="185"/>
+      <c r="S34" s="185" t="s">
+        <v>53</v>
+      </c>
       <c r="T34" s="186"/>
-      <c r="U34" s="187"/>
+      <c r="U34" s="187" t="s">
+        <v>171</v>
+      </c>
       <c r="V34" s="187"/>
       <c r="W34" s="187"/>
       <c r="X34" s="187"/>
       <c r="Y34" s="187"/>
       <c r="Z34" s="187"/>
       <c r="AA34" s="188"/>
-      <c r="AC34" s="168"/>
-      <c r="AD34" s="156"/>
-      <c r="AE34" s="156"/>
-      <c r="AF34" s="156"/>
-      <c r="AG34" s="156"/>
-      <c r="AH34" s="156"/>
-      <c r="AI34" s="156"/>
-      <c r="AJ34" s="157"/>
-    </row>
-    <row r="35" spans="1:36" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="AC34" s="160" t="s">
+        <v>178</v>
+      </c>
+      <c r="AD34" s="148"/>
+      <c r="AE34" s="148"/>
+      <c r="AF34" s="148"/>
+      <c r="AG34" s="148"/>
+      <c r="AH34" s="148"/>
+      <c r="AI34" s="149"/>
+    </row>
+    <row r="35" spans="1:35" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A35" s="63" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B35" s="47"/>
-      <c r="C35" s="63">
-        <f>AI23/8</f>
-        <v>0</v>
+      <c r="C35" s="64">
+        <f>NETWORKDAYS(B2,B3)-C34</f>
+        <v>21</v>
       </c>
       <c r="D35" s="44"/>
       <c r="E35" s="44"/>
@@ -6033,22 +6067,21 @@
       <c r="Y35" s="187"/>
       <c r="Z35" s="187"/>
       <c r="AA35" s="188"/>
-      <c r="AC35" s="168"/>
-      <c r="AD35" s="156"/>
-      <c r="AE35" s="156"/>
-      <c r="AF35" s="156"/>
-      <c r="AG35" s="156"/>
-      <c r="AH35" s="156"/>
-      <c r="AI35" s="156"/>
-      <c r="AJ35" s="157"/>
-    </row>
-    <row r="36" spans="1:36" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="AC35" s="160"/>
+      <c r="AD35" s="148"/>
+      <c r="AE35" s="148"/>
+      <c r="AF35" s="148"/>
+      <c r="AG35" s="148"/>
+      <c r="AH35" s="148"/>
+      <c r="AI35" s="149"/>
+    </row>
+    <row r="36" spans="1:35" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A36" s="63" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B36" s="47"/>
       <c r="C36" s="63">
-        <f>AI22/8</f>
+        <f>AH24/8</f>
         <v>0</v>
       </c>
       <c r="D36" s="44"/>
@@ -6065,77 +6098,94 @@
       <c r="Y36" s="187"/>
       <c r="Z36" s="187"/>
       <c r="AA36" s="188"/>
-      <c r="AC36" s="168"/>
-      <c r="AD36" s="156"/>
-      <c r="AE36" s="156"/>
-      <c r="AF36" s="156"/>
-      <c r="AG36" s="156"/>
-      <c r="AH36" s="156"/>
-      <c r="AI36" s="156"/>
-      <c r="AJ36" s="157"/>
-    </row>
-    <row r="37" spans="1:36" ht="19" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A37" s="139" t="s">
-        <v>59</v>
-      </c>
-      <c r="B37" s="139"/>
+      <c r="AC36" s="160"/>
+      <c r="AD36" s="148"/>
+      <c r="AE36" s="148"/>
+      <c r="AF36" s="148"/>
+      <c r="AG36" s="148"/>
+      <c r="AH36" s="148"/>
+      <c r="AI36" s="149"/>
+    </row>
+    <row r="37" spans="1:35" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A37" s="63" t="s">
+        <v>58</v>
+      </c>
+      <c r="B37" s="47"/>
       <c r="C37" s="63">
-        <f>COUNTIF(D25:AH25,"&gt;0")</f>
-        <v>23</v>
+        <f>AH23/8</f>
+        <v>0</v>
       </c>
       <c r="D37" s="44"/>
       <c r="E37" s="44"/>
       <c r="F37" s="44"/>
       <c r="G37" s="44"/>
       <c r="H37" s="44"/>
-      <c r="S37" s="192"/>
-      <c r="T37" s="193"/>
-      <c r="U37" s="194"/>
-      <c r="V37" s="194"/>
-      <c r="W37" s="194"/>
-      <c r="X37" s="194"/>
-      <c r="Y37" s="194"/>
-      <c r="Z37" s="194"/>
-      <c r="AA37" s="195"/>
-      <c r="AC37" s="169"/>
-      <c r="AD37" s="159"/>
-      <c r="AE37" s="159"/>
-      <c r="AF37" s="159"/>
-      <c r="AG37" s="159"/>
-      <c r="AH37" s="159"/>
-      <c r="AI37" s="159"/>
-      <c r="AJ37" s="160"/>
-    </row>
-    <row r="38" spans="1:36" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A38" s="63" t="s">
-        <v>60</v>
-      </c>
-      <c r="B38" s="47"/>
-      <c r="C38" s="65">
-        <f>C37/(C37+C35+C36)</f>
-        <v>1</v>
+      <c r="S37" s="185"/>
+      <c r="T37" s="186"/>
+      <c r="U37" s="187"/>
+      <c r="V37" s="187"/>
+      <c r="W37" s="187"/>
+      <c r="X37" s="187"/>
+      <c r="Y37" s="187"/>
+      <c r="Z37" s="187"/>
+      <c r="AA37" s="188"/>
+      <c r="AC37" s="160"/>
+      <c r="AD37" s="148"/>
+      <c r="AE37" s="148"/>
+      <c r="AF37" s="148"/>
+      <c r="AG37" s="148"/>
+      <c r="AH37" s="148"/>
+      <c r="AI37" s="149"/>
+    </row>
+    <row r="38" spans="1:35" ht="19" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A38" s="174" t="s">
+        <v>59</v>
+      </c>
+      <c r="B38" s="174"/>
+      <c r="C38" s="63">
+        <f>COUNTIF(D26:AG26,"&gt;0")</f>
+        <v>21</v>
       </c>
       <c r="D38" s="44"/>
       <c r="E38" s="44"/>
       <c r="F38" s="44"/>
       <c r="G38" s="44"/>
       <c r="H38" s="44"/>
-    </row>
-    <row r="39" spans="1:36" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A39" s="63"/>
+      <c r="S38" s="192"/>
+      <c r="T38" s="193"/>
+      <c r="U38" s="194"/>
+      <c r="V38" s="194"/>
+      <c r="W38" s="194"/>
+      <c r="X38" s="194"/>
+      <c r="Y38" s="194"/>
+      <c r="Z38" s="194"/>
+      <c r="AA38" s="195"/>
+      <c r="AC38" s="161"/>
+      <c r="AD38" s="151"/>
+      <c r="AE38" s="151"/>
+      <c r="AF38" s="151"/>
+      <c r="AG38" s="151"/>
+      <c r="AH38" s="151"/>
+      <c r="AI38" s="152"/>
+    </row>
+    <row r="39" spans="1:35" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A39" s="63" t="s">
+        <v>60</v>
+      </c>
       <c r="B39" s="47"/>
-      <c r="C39" s="63"/>
+      <c r="C39" s="65">
+        <f>C38/(C38+C36+C37)</f>
+        <v>1</v>
+      </c>
       <c r="D39" s="44"/>
       <c r="E39" s="44"/>
       <c r="F39" s="44"/>
       <c r="G39" s="44"/>
       <c r="H39" s="44"/>
     </row>
-    <row r="40" spans="1:36" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A40" s="72" t="s">
-        <v>61</v>
-      </c>
-      <c r="B40" s="46"/>
+    <row r="40" spans="1:35" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A40" s="63"/>
+      <c r="B40" s="47"/>
       <c r="C40" s="63"/>
       <c r="D40" s="44"/>
       <c r="E40" s="44"/>
@@ -6143,28 +6193,26 @@
       <c r="G40" s="44"/>
       <c r="H40" s="44"/>
     </row>
-    <row r="41" spans="1:36" ht="35.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A41" s="139" t="s">
-        <v>62</v>
-      </c>
-      <c r="B41" s="139"/>
-      <c r="C41" s="63">
-        <f>AI25</f>
-        <v>51</v>
-      </c>
+    <row r="41" spans="1:35" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A41" s="72" t="s">
+        <v>61</v>
+      </c>
+      <c r="B41" s="46"/>
+      <c r="C41" s="63"/>
       <c r="D41" s="44"/>
       <c r="E41" s="44"/>
       <c r="F41" s="44"/>
       <c r="G41" s="44"/>
       <c r="H41" s="44"/>
     </row>
-    <row r="42" spans="1:36" ht="38.15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A42" s="139" t="s">
-        <v>63</v>
-      </c>
-      <c r="B42" s="139"/>
+    <row r="42" spans="1:35" ht="35.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A42" s="174" t="s">
+        <v>62</v>
+      </c>
+      <c r="B42" s="174"/>
       <c r="C42" s="63">
-        <v>39</v>
+        <f>AH26</f>
+        <v>168</v>
       </c>
       <c r="D42" s="44"/>
       <c r="E42" s="44"/>
@@ -6172,14 +6220,13 @@
       <c r="G42" s="44"/>
       <c r="H42" s="44"/>
     </row>
-    <row r="43" spans="1:36" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A43" s="63" t="s">
-        <v>64</v>
-      </c>
-      <c r="B43" s="48"/>
+    <row r="43" spans="1:35" ht="38.15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A43" s="174" t="s">
+        <v>63</v>
+      </c>
+      <c r="B43" s="174"/>
       <c r="C43" s="63">
-        <f>SUMIFS($AI$12:$AI$20, $C$12:$C$20, "Morning")</f>
-        <v>0</v>
+        <v>39</v>
       </c>
       <c r="D43" s="44"/>
       <c r="E43" s="44"/>
@@ -6187,13 +6234,13 @@
       <c r="G43" s="44"/>
       <c r="H43" s="44"/>
     </row>
-    <row r="44" spans="1:36" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:35" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A44" s="63" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B44" s="48"/>
       <c r="C44" s="63">
-        <f>SUMIFS($AI$12:$AI$20, $C$12:$C$20, "Afternoon")</f>
+        <f>SUMIFS($AH$12:$AH$21, $C$12:$C$21, "Morning")</f>
         <v>0</v>
       </c>
       <c r="D44" s="44"/>
@@ -6201,16 +6248,14 @@
       <c r="F44" s="44"/>
       <c r="G44" s="44"/>
       <c r="H44" s="44"/>
-      <c r="I44" s="44"/>
-      <c r="J44" s="44"/>
-    </row>
-    <row r="45" spans="1:36" ht="18.5" x14ac:dyDescent="0.45">
+    </row>
+    <row r="45" spans="1:35" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A45" s="63" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B45" s="48"/>
       <c r="C45" s="63">
-        <f>SUMIFS($AI$12:$AI$20, $C$12:$C$20, "Night")</f>
+        <f>SUMIFS($AH$12:$AH$21, $C$12:$C$21, "Afternoon")</f>
         <v>0</v>
       </c>
       <c r="D45" s="44"/>
@@ -6221,10 +6266,15 @@
       <c r="I45" s="44"/>
       <c r="J45" s="44"/>
     </row>
-    <row r="46" spans="1:36" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A46" s="63"/>
-      <c r="B46" s="47"/>
-      <c r="C46" s="63"/>
+    <row r="46" spans="1:35" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A46" s="63" t="s">
+        <v>66</v>
+      </c>
+      <c r="B46" s="48"/>
+      <c r="C46" s="63">
+        <f>SUMIFS($AH$12:$AH$21, $C$12:$C$21, "Night")</f>
+        <v>0</v>
+      </c>
       <c r="D46" s="44"/>
       <c r="E46" s="44"/>
       <c r="F46" s="44"/>
@@ -6233,11 +6283,9 @@
       <c r="I46" s="44"/>
       <c r="J46" s="44"/>
     </row>
-    <row r="47" spans="1:36" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A47" s="72" t="s">
-        <v>67</v>
-      </c>
-      <c r="B47" s="46"/>
+    <row r="47" spans="1:35" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A47" s="63"/>
+      <c r="B47" s="47"/>
       <c r="C47" s="63"/>
       <c r="D47" s="44"/>
       <c r="E47" s="44"/>
@@ -6247,11 +6295,11 @@
       <c r="I47" s="44"/>
       <c r="J47" s="44"/>
     </row>
-    <row r="48" spans="1:36" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A48" s="63" t="s">
-        <v>68</v>
-      </c>
-      <c r="B48" s="47"/>
+    <row r="48" spans="1:35" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A48" s="72" t="s">
+        <v>67</v>
+      </c>
+      <c r="B48" s="46"/>
       <c r="C48" s="63"/>
       <c r="D48" s="44"/>
       <c r="E48" s="44"/>
@@ -6263,7 +6311,7 @@
     </row>
     <row r="49" spans="1:10" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A49" s="63" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B49" s="47"/>
       <c r="C49" s="63"/>
@@ -6276,7 +6324,9 @@
       <c r="J49" s="44"/>
     </row>
     <row r="50" spans="1:10" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A50" s="63"/>
+      <c r="A50" s="63" t="s">
+        <v>69</v>
+      </c>
       <c r="B50" s="47"/>
       <c r="C50" s="63"/>
       <c r="D50" s="44"/>
@@ -6287,33 +6337,45 @@
       <c r="I50" s="44"/>
       <c r="J50" s="44"/>
     </row>
-    <row r="52" spans="1:10" ht="155.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="53" spans="1:10" ht="169" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="51" spans="1:10" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A51" s="63"/>
+      <c r="B51" s="47"/>
+      <c r="C51" s="63"/>
+      <c r="D51" s="44"/>
+      <c r="E51" s="44"/>
+      <c r="F51" s="44"/>
+      <c r="G51" s="44"/>
+      <c r="H51" s="44"/>
+      <c r="I51" s="44"/>
+      <c r="J51" s="44"/>
+    </row>
+    <row r="53" spans="1:10" ht="155.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="54" spans="1:10" ht="169" customHeight="1" x14ac:dyDescent="0.35"/>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="A41:B41"/>
-    <mergeCell ref="A42:B42"/>
-    <mergeCell ref="AC27:AJ27"/>
-    <mergeCell ref="S28:T32"/>
-    <mergeCell ref="U28:AA32"/>
-    <mergeCell ref="AC28:AJ32"/>
-    <mergeCell ref="A33:B33"/>
-    <mergeCell ref="S33:T37"/>
-    <mergeCell ref="U33:AA37"/>
-    <mergeCell ref="AC33:AJ37"/>
-    <mergeCell ref="A37:B37"/>
-    <mergeCell ref="S27:AA27"/>
-    <mergeCell ref="A22:C22"/>
-    <mergeCell ref="A23:C23"/>
-    <mergeCell ref="A24:C24"/>
-    <mergeCell ref="A25:C25"/>
-    <mergeCell ref="E27:J30"/>
-    <mergeCell ref="AI9:AI10"/>
+    <mergeCell ref="AH9:AH10"/>
     <mergeCell ref="N5:Q5"/>
     <mergeCell ref="N6:Q6"/>
     <mergeCell ref="A9:A10"/>
     <mergeCell ref="B9:B10"/>
     <mergeCell ref="C9:C10"/>
+    <mergeCell ref="A23:C23"/>
+    <mergeCell ref="A24:C24"/>
+    <mergeCell ref="A25:C25"/>
+    <mergeCell ref="A26:C26"/>
+    <mergeCell ref="E28:J31"/>
+    <mergeCell ref="A42:B42"/>
+    <mergeCell ref="A43:B43"/>
+    <mergeCell ref="AC28:AI28"/>
+    <mergeCell ref="S29:T33"/>
+    <mergeCell ref="U29:AA33"/>
+    <mergeCell ref="AC29:AI33"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="S34:T38"/>
+    <mergeCell ref="U34:AA38"/>
+    <mergeCell ref="AC34:AI38"/>
+    <mergeCell ref="A38:B38"/>
+    <mergeCell ref="S28:AA28"/>
   </mergeCells>
   <conditionalFormatting sqref="B2:B3">
     <cfRule type="expression" dxfId="5" priority="1">
@@ -6325,20 +6387,22 @@
       <formula>TEXT(B3,"mmm")&lt;&gt;#REF!</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D25:AH25">
-    <cfRule type="cellIs" dxfId="3" priority="5" operator="greaterThan">
+  <conditionalFormatting sqref="D22:AF22 D9:AG21 D23:AG26">
+    <cfRule type="expression" dxfId="3" priority="36">
+      <formula>D$25=8</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D22:AF22 D9:AG21 D23:AG26">
+    <cfRule type="expression" dxfId="2" priority="35">
+      <formula>OR(D$9="Sat",D$9="Sun")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D26:AG26">
+    <cfRule type="cellIs" dxfId="1" priority="5" operator="greaterThan">
       <formula>8</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="6" operator="lessThan">
+    <cfRule type="cellIs" dxfId="0" priority="6" operator="lessThan">
       <formula>8</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D9:AH20 D21:AF21 D22:AH25">
-    <cfRule type="expression" dxfId="1" priority="35">
-      <formula>OR(D$9="Sat",D$9="Sun")</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="0" priority="36">
-      <formula>D$24=8</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
@@ -7395,15 +7459,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100CBBA4E8384962545BF977EF5EB207524" ma:contentTypeVersion="4" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="4c71af4b5276cc520d7caa7153b08011">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="ecef1726-c816-4ce0-a2de-c7222e5e0303" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="d40dcfb130600d1adddbff1088e0e0d5" ns2:_="">
     <xsd:import namespace="ecef1726-c816-4ce0-a2de-c7222e5e0303"/>
@@ -7547,15 +7602,16 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39A50F55-EB9E-48CA-A399-9CBC9253A5CE}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6E1BDC32-896F-448F-9DE0-A2D567D26AC8}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -7571,4 +7627,12 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39A50F55-EB9E-48CA-A399-9CBC9253A5CE}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>